--- a/sriramModel-nelson-atypical-patientID_49-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_49-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.231404354269652</v>
+        <v>1.026460891058968</v>
       </c>
       <c r="C2">
-        <v>1.018171754054775</v>
+        <v>1.295720922398063</v>
       </c>
       <c r="D2">
-        <v>1.031109687818172</v>
+        <v>1.079859448513125</v>
       </c>
       <c r="E2">
-        <v>1.009135823149834</v>
+        <v>1.102081657672039</v>
       </c>
       <c r="F2">
-        <v>1.189321577785635</v>
+        <v>1.056448297983802</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.460706312761882</v>
+        <v>1.05286557639891</v>
       </c>
       <c r="C3">
-        <v>1.036192807567723</v>
+        <v>1.591185106874092</v>
       </c>
       <c r="D3">
-        <v>1.061319534516172</v>
+        <v>1.159408268229229</v>
       </c>
       <c r="E3">
-        <v>1.018111952424175</v>
+        <v>1.203882126819457</v>
       </c>
       <c r="F3">
-        <v>1.375550769887254</v>
+        <v>1.112621461175034</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.68805762371072</v>
+        <v>1.079214873941247</v>
       </c>
       <c r="C4">
-        <v>1.054064935206696</v>
+        <v>1.88640599669084</v>
       </c>
       <c r="D4">
-        <v>1.090647040163835</v>
+        <v>1.238653207259018</v>
       </c>
       <c r="E4">
-        <v>1.026932309300024</v>
+        <v>1.305410898813784</v>
       </c>
       <c r="F4">
-        <v>1.558753353238556</v>
+        <v>1.168526410201658</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.913593051558937</v>
+        <v>1.105509587175047</v>
       </c>
       <c r="C5">
-        <v>1.07178991445103</v>
+        <v>2.181395888812921</v>
       </c>
       <c r="D5">
-        <v>1.119109000071651</v>
+        <v>1.317600766517823</v>
       </c>
       <c r="E5">
-        <v>1.035600697119396</v>
+        <v>1.406676962447983</v>
       </c>
       <c r="F5">
-        <v>1.738987579518327</v>
+        <v>1.224169675366328</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.137432761478163</v>
+        <v>1.131750499276553</v>
       </c>
       <c r="C6">
-        <v>1.089369481496634</v>
+        <v>2.476166096353382</v>
       </c>
       <c r="D6">
-        <v>1.146721507354222</v>
+        <v>1.396257216789105</v>
       </c>
       <c r="E6">
-        <v>1.044120775971083</v>
+        <v>1.507688843783043</v>
       </c>
       <c r="F6">
-        <v>1.916305334332514</v>
+        <v>1.279557394299079</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.359684529626115</v>
+        <v>1.15793837506191</v>
       </c>
       <c r="C7">
-        <v>1.106805339479469</v>
+        <v>2.770727042027515</v>
       </c>
       <c r="D7">
-        <v>1.173500013614441</v>
+        <v>1.474628607411086</v>
       </c>
       <c r="E7">
-        <v>1.052496068411877</v>
+        <v>1.60845464785444</v>
       </c>
       <c r="F7">
-        <v>2.090753197516023</v>
+        <v>1.334695361445687</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.580445427399636</v>
+        <v>1.184073961851965</v>
       </c>
       <c r="C8">
-        <v>1.124099161822046</v>
+        <v>3.065088313311227</v>
       </c>
       <c r="D8">
-        <v>1.199459364352703</v>
+        <v>1.552720764897696</v>
       </c>
       <c r="E8">
-        <v>1.060729968300443</v>
+        <v>1.708982068090418</v>
       </c>
       <c r="F8">
-        <v>2.262373242701927</v>
+        <v>1.389589012853786</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.799803105298125</v>
+        <v>1.210157988947424</v>
       </c>
       <c r="C9">
-        <v>1.141252591054954</v>
+        <v>3.359258780704677</v>
       </c>
       <c r="D9">
-        <v>1.224613830434753</v>
+        <v>1.630539313519279</v>
       </c>
       <c r="E9">
-        <v>1.068825751589287</v>
+        <v>1.809278424973682</v>
       </c>
       <c r="F9">
-        <v>2.431203713427894</v>
+        <v>1.444243446215689</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.017837075349685</v>
+        <v>1.236191168408851</v>
       </c>
       <c r="C10">
-        <v>1.158267239733902</v>
+        <v>3.653246660401063</v>
       </c>
       <c r="D10">
-        <v>1.248977136619918</v>
+        <v>1.708089683535492</v>
       </c>
       <c r="E10">
-        <v>1.076786578748242</v>
+        <v>1.909350694938495</v>
       </c>
       <c r="F10">
-        <v>2.597279540282841</v>
+        <v>1.498663442298642</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.234619663915393</v>
+        <v>1.262174195880361</v>
       </c>
       <c r="C11">
-        <v>1.17514468952394</v>
+        <v>3.947059563654664</v>
       </c>
       <c r="D11">
-        <v>1.272562493558789</v>
+        <v>1.785377117119501</v>
       </c>
       <c r="E11">
-        <v>1.08461549750629</v>
+        <v>2.009205527514558</v>
       </c>
       <c r="F11">
-        <v>2.760632639512308</v>
+        <v>1.552853473095876</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.450216839660673</v>
+        <v>1.288107750992189</v>
       </c>
       <c r="C12">
-        <v>1.191886493046823</v>
+        <v>4.240704545851929</v>
       </c>
       <c r="D12">
-        <v>1.295382619815942</v>
+        <v>1.862406675413274</v>
       </c>
       <c r="E12">
-        <v>1.092315447009929</v>
+        <v>2.108849263157951</v>
       </c>
       <c r="F12">
-        <v>2.92129265430486</v>
+        <v>1.606817708001343</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.664688858348533</v>
+        <v>1.313992497620662</v>
       </c>
       <c r="C13">
-        <v>1.208494174351121</v>
+        <v>4.534188160735818</v>
       </c>
       <c r="D13">
-        <v>1.31744975886894</v>
+        <v>1.939183246679599</v>
       </c>
       <c r="E13">
-        <v>1.099889262683426</v>
+        <v>2.208287953728837</v>
       </c>
       <c r="F13">
-        <v>3.079287194509234</v>
+        <v>1.660560020677082</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.878090902937974</v>
+        <v>1.339829084220863</v>
       </c>
       <c r="C14">
-        <v>1.224969229002829</v>
+        <v>4.827516503388759</v>
       </c>
       <c r="D14">
-        <v>1.338775717816049</v>
+        <v>2.015711553507398</v>
       </c>
       <c r="E14">
-        <v>1.107339676482804</v>
+        <v>2.307527381448776</v>
       </c>
       <c r="F14">
-        <v>3.234641944875977</v>
+        <v>1.714083996931445</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.090473672038861</v>
+        <v>1.365618144233963</v>
       </c>
       <c r="C15">
-        <v>1.241313123905446</v>
+        <v>5.120695244731554</v>
       </c>
       <c r="D15">
-        <v>1.359371883474252</v>
+        <v>2.09199615896157</v>
       </c>
       <c r="E15">
-        <v>1.114669324551514</v>
+        <v>2.406573074695317</v>
       </c>
       <c r="F15">
-        <v>3.387380969471097</v>
+        <v>1.76739294033332</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.301883807270763</v>
+        <v>1.391360296438877</v>
       </c>
       <c r="C16">
-        <v>1.257527297893642</v>
+        <v>5.413729662922846</v>
       </c>
       <c r="D16">
-        <v>1.37924924569103</v>
+        <v>2.168041472213576</v>
       </c>
       <c r="E16">
-        <v>1.12188073798745</v>
+        <v>2.505430322072577</v>
       </c>
       <c r="F16">
-        <v>3.53752697099709</v>
+        <v>1.820489876213103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.512364228439868</v>
+        <v>1.417056145250718</v>
       </c>
       <c r="C17">
-        <v>1.273613161747546</v>
+        <v>5.706624677105984</v>
       </c>
       <c r="D17">
-        <v>1.39841842097489</v>
+        <v>2.243851754668984</v>
       </c>
       <c r="E17">
-        <v>1.12897635799704</v>
+        <v>2.604104186915548</v>
       </c>
       <c r="F17">
-        <v>3.685101445505699</v>
+        <v>1.873377554360039</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.721954458289476</v>
+        <v>1.442706280981214</v>
       </c>
       <c r="C18">
-        <v>1.289572098253679</v>
+        <v>5.999384857666216</v>
       </c>
       <c r="D18">
-        <v>1.41688966045844</v>
+        <v>2.3194311233853</v>
       </c>
       <c r="E18">
-        <v>1.135958531410274</v>
+        <v>2.702599518762313</v>
       </c>
       <c r="F18">
-        <v>3.830124800547377</v>
+        <v>1.926058450787246</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.930690912490817</v>
+        <v>1.46831128007218</v>
       </c>
       <c r="C19">
-        <v>1.305405462391931</v>
+        <v>6.292014457852927</v>
       </c>
       <c r="D19">
-        <v>1.434672871004345</v>
+        <v>2.394783558479411</v>
       </c>
       <c r="E19">
-        <v>1.142829514690855</v>
+        <v>2.800920966315067</v>
       </c>
       <c r="F19">
-        <v>3.972616484927587</v>
+        <v>1.97853476861489</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.138607184755501</v>
+        <v>1.493871705296606</v>
       </c>
       <c r="C20">
-        <v>1.32111458091018</v>
+        <v>6.584517439273144</v>
       </c>
       <c r="D20">
-        <v>1.451777629615725</v>
+        <v>2.469912900433473</v>
       </c>
       <c r="E20">
-        <v>1.149591470307799</v>
+        <v>2.899072977687062</v>
       </c>
       <c r="F20">
-        <v>4.112595106669781</v>
+        <v>2.03080843721709</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.345734285524102</v>
+        <v>1.519388105989302</v>
       </c>
       <c r="C21">
-        <v>1.336700752317267</v>
+        <v>6.876897475308684</v>
       </c>
       <c r="D21">
-        <v>1.468213200138678</v>
+        <v>2.544822863658041</v>
       </c>
       <c r="E21">
-        <v>1.156246467502198</v>
+        <v>2.997059828985248</v>
       </c>
       <c r="F21">
-        <v>4.250078522482916</v>
+        <v>2.082881111863966</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.552100790627466</v>
+        <v>1.544861018018141</v>
       </c>
       <c r="C22">
-        <v>1.352165246314031</v>
+        <v>7.169157990696165</v>
       </c>
       <c r="D22">
-        <v>1.483988549732154</v>
+        <v>2.619517033819986</v>
       </c>
       <c r="E22">
-        <v>1.162796482105446</v>
+        <v>3.094885618156149</v>
       </c>
       <c r="F22">
-        <v>4.385083891067745</v>
+        <v>2.134754170145836</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.757732956245107</v>
+        <v>1.57029096401215</v>
       </c>
       <c r="C23">
-        <v>1.367509303381474</v>
+        <v>7.461302154351057</v>
       </c>
       <c r="D23">
-        <v>1.499112357601209</v>
+        <v>2.693998874727952</v>
       </c>
       <c r="E23">
-        <v>1.169243395446409</v>
+        <v>3.192554286463541</v>
       </c>
       <c r="F23">
-        <v>4.517627820642044</v>
+        <v>2.186428711305725</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.962654901948467</v>
+        <v>1.595678453322542</v>
       </c>
       <c r="C24">
-        <v>1.38273413420285</v>
+        <v>7.753332903180049</v>
       </c>
       <c r="D24">
-        <v>1.513593038495963</v>
+        <v>2.768271728993349</v>
       </c>
       <c r="E24">
-        <v>1.175588993641792</v>
+        <v>3.290069617398003</v>
       </c>
       <c r="F24">
-        <v>4.647726273158191</v>
+        <v>2.23790554741291</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.166888671610478</v>
+        <v>1.621023982211791</v>
       </c>
       <c r="C25">
-        <v>1.397840918872192</v>
+        <v>8.045252938958317</v>
       </c>
       <c r="D25">
-        <v>1.527438740935394</v>
+        <v>2.842338821650223</v>
       </c>
       <c r="E25">
-        <v>1.181834964624962</v>
+        <v>3.387435248936915</v>
       </c>
       <c r="F25">
-        <v>4.775394880079766</v>
+        <v>2.289185202540593</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.370454360122614</v>
+        <v>1.646328033615693</v>
       </c>
       <c r="C26">
-        <v>1.412830805760517</v>
+        <v>8.337064742775267</v>
       </c>
       <c r="D26">
-        <v>1.540657371556646</v>
+        <v>2.916203260872974</v>
       </c>
       <c r="E26">
-        <v>1.187982894912169</v>
+        <v>3.48465467466317</v>
       </c>
       <c r="F26">
-        <v>4.900648698840214</v>
+        <v>2.340267901321712</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.573370174845196</v>
+        <v>1.671591077113445</v>
       </c>
       <c r="C27">
-        <v>1.427704910298488</v>
+        <v>8.628770581435401</v>
       </c>
       <c r="D27">
-        <v>1.553256603030494</v>
+        <v>2.989868040092673</v>
       </c>
       <c r="E27">
-        <v>1.194034265983876</v>
+        <v>3.581731252586853</v>
       </c>
       <c r="F27">
-        <v>5.023502401437977</v>
+        <v>2.391153561985956</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.775652510203956</v>
+        <v>1.696813568635695</v>
       </c>
       <c r="C28">
-        <v>1.442464313624322</v>
+        <v>8.920372512712397</v>
       </c>
       <c r="D28">
-        <v>1.56524386979271</v>
+        <v>3.063336040008059</v>
       </c>
       <c r="E28">
-        <v>1.199990448730343</v>
+        <v>3.678668210510652</v>
       </c>
       <c r="F28">
-        <v>5.143970217576141</v>
+        <v>2.441841789930333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.977315938360201</v>
+        <v>1.7219959502089</v>
       </c>
       <c r="C29">
-        <v>1.457110060392261</v>
+        <v>9.211872388815047</v>
       </c>
       <c r="D29">
-        <v>1.576626406470923</v>
+        <v>3.136610029340247</v>
       </c>
       <c r="E29">
-        <v>1.205852697930065</v>
+        <v>3.775468651412936</v>
       </c>
       <c r="F29">
-        <v>5.262066034788775</v>
+        <v>2.492331862047648</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.178373232127481</v>
+        <v>1.747138649589555</v>
       </c>
       <c r="C30">
-        <v>1.471643156595639</v>
+        <v>9.50327186125107</v>
       </c>
       <c r="D30">
-        <v>1.587411217997816</v>
+        <v>3.209692665290838</v>
       </c>
       <c r="E30">
-        <v>1.211622143424337</v>
+        <v>3.872135557837479</v>
       </c>
       <c r="F30">
-        <v>5.377803396434048</v>
+        <v>2.542622719553148</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.3788353766707</v>
+        <v>1.772242079854475</v>
       </c>
       <c r="C31">
-        <v>1.486064567319149</v>
+        <v>9.794572377555678</v>
       </c>
       <c r="D31">
-        <v>1.597605126971382</v>
+        <v>3.282586494841729</v>
       </c>
       <c r="E31">
-        <v>1.217299788381371</v>
+        <v>3.968671797382572</v>
       </c>
       <c r="F31">
-        <v>5.491195556132623</v>
+        <v>2.592712950814838</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.578711509809792</v>
+        <v>1.797306638716918</v>
       </c>
       <c r="C32">
-        <v>1.500375212995862</v>
+        <v>10.08577518029864</v>
       </c>
       <c r="D32">
-        <v>1.607214747327246</v>
+        <v>3.355293952819692</v>
       </c>
       <c r="E32">
-        <v>1.222886486527935</v>
+        <v>4.065080123935876</v>
       </c>
       <c r="F32">
-        <v>5.602255452930052</v>
+        <v>2.642600775734251</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.778008891117414</v>
+        <v>1.822332707757266</v>
       </c>
       <c r="C33">
-        <v>1.51457596564492</v>
+        <v>10.37688130700196</v>
       </c>
       <c r="D33">
-        <v>1.616246517859094</v>
+        <v>3.427817361883869</v>
       </c>
       <c r="E33">
-        <v>1.22838295474684</v>
+        <v>4.161363182014592</v>
       </c>
       <c r="F33">
-        <v>5.710995751419097</v>
+        <v>2.692284034392798</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7.97673284836199</v>
+        <v>1.847320651536375</v>
       </c>
       <c r="C34">
-        <v>1.528667644944999</v>
+        <v>10.66789158140773</v>
       </c>
       <c r="D34">
-        <v>1.624706690252548</v>
+        <v>3.500158931290742</v>
       </c>
       <c r="E34">
-        <v>1.233789724641837</v>
+        <v>4.257523508407675</v>
       </c>
       <c r="F34">
-        <v>5.817428823419323</v>
+        <v>2.741760159885147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.174886664766113</v>
+        <v>1.872270816456065</v>
       </c>
       <c r="C35">
-        <v>1.542651012238206</v>
+        <v>10.95880660812729</v>
       </c>
       <c r="D35">
-        <v>1.632601347082599</v>
+        <v>3.572320753581961</v>
       </c>
       <c r="E35">
-        <v>1.239107171614261</v>
+        <v>4.353563533070762</v>
       </c>
       <c r="F35">
-        <v>5.921566772391407</v>
+        <v>2.791026166420756</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.372471454117065</v>
+        <v>1.897183529241638</v>
       </c>
       <c r="C36">
-        <v>1.556526763971582</v>
+        <v>11.2496267663435</v>
       </c>
       <c r="D36">
-        <v>1.639936400831578</v>
+        <v>3.644304803285502</v>
       </c>
       <c r="E36">
-        <v>1.244335445486366</v>
+        <v>4.449485581435453</v>
       </c>
       <c r="F36">
-        <v>6.023421434926254</v>
+        <v>2.840078623369529</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.569486031925424</v>
+        <v>1.922059094621584</v>
       </c>
       <c r="C37">
-        <v>1.570295524811342</v>
+        <v>11.54035219476615</v>
       </c>
       <c r="D37">
-        <v>1.646717599492424</v>
+        <v>3.71611293261738</v>
       </c>
       <c r="E37">
-        <v>1.249474503901712</v>
+        <v>4.545291873717219</v>
       </c>
       <c r="F37">
-        <v>6.123004388768171</v>
+        <v>2.888913626671403</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.765926718335869</v>
+        <v>1.946897795601582</v>
       </c>
       <c r="C38">
-        <v>1.583957838264027</v>
+        <v>11.83098277742865</v>
       </c>
       <c r="D38">
-        <v>1.652950535710428</v>
+        <v>3.787746866278589</v>
       </c>
       <c r="E38">
-        <v>1.25452403443034</v>
+        <v>4.640984523584078</v>
       </c>
       <c r="F38">
-        <v>6.220326954918512</v>
+        <v>2.937526781402299</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.961787102544932</v>
+        <v>1.971699886637981</v>
       </c>
       <c r="C39">
-        <v>1.597514155137018</v>
+        <v>12.12151813089411</v>
       </c>
       <c r="D39">
-        <v>1.658640639079027</v>
+        <v>3.859208198105634</v>
       </c>
       <c r="E39">
-        <v>1.259483478961762</v>
+        <v>4.736565538322394</v>
       </c>
       <c r="F39">
-        <v>6.315400197139997</v>
+        <v>2.985913159203969</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.157057792154799</v>
+        <v>1.996465597205801</v>
       </c>
       <c r="C40">
-        <v>1.610964821227103</v>
+        <v>12.4119575768156</v>
       </c>
       <c r="D40">
-        <v>1.663793195500436</v>
+        <v>3.930498382193937</v>
       </c>
       <c r="E40">
-        <v>1.264351951337612</v>
+        <v>4.83203681355563</v>
       </c>
       <c r="F40">
-        <v>6.408234917976217</v>
+        <v>3.034067276081787</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.351726119383226</v>
+        <v>2.021195122060728</v>
       </c>
       <c r="C41">
-        <v>1.624310062949203</v>
+        <v>12.70230011773073</v>
       </c>
       <c r="D41">
-        <v>1.668413329741331</v>
+        <v>4.001618724743206</v>
       </c>
       <c r="E41">
-        <v>1.269128251104492</v>
+        <v>4.92740012852134</v>
       </c>
       <c r="F41">
-        <v>6.49884164959045</v>
+        <v>3.081983052440589</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>9.545775720572076</v>
+        <v>2.045888619824976</v>
       </c>
       <c r="C42">
-        <v>1.637549966598496</v>
+        <v>12.99254441313458</v>
       </c>
       <c r="D42">
-        <v>1.672506028787646</v>
+        <v>4.072570377728882</v>
       </c>
       <c r="E42">
-        <v>1.273810769238176</v>
+        <v>5.022657143056531</v>
       </c>
       <c r="F42">
-        <v>6.587230650502461</v>
+        <v>3.129653770278795</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.73918610122805</v>
+        <v>2.0705462103192</v>
       </c>
       <c r="C43">
-        <v>1.650684456099481</v>
+        <v>13.28268873431377</v>
       </c>
       <c r="D43">
-        <v>1.676076122062367</v>
+        <v>4.143354322806504</v>
       </c>
       <c r="E43">
-        <v>1.278397490595665</v>
+        <v>5.117809384457355</v>
       </c>
       <c r="F43">
-        <v>6.673411893622132</v>
+        <v>3.177072042903672</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.931932198858709</v>
+        <v>2.095167958989459</v>
       </c>
       <c r="C44">
-        <v>1.663713270883605</v>
+        <v>13.57273092156747</v>
       </c>
       <c r="D44">
-        <v>1.679128301590222</v>
+        <v>4.213971360558985</v>
       </c>
       <c r="E44">
-        <v>1.282885884585641</v>
+        <v>5.212858238851587</v>
       </c>
       <c r="F44">
-        <v>6.757395054285436</v>
+        <v>3.224229752701985</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.12398366943127</v>
+        <v>2.119753887339073</v>
       </c>
       <c r="C45">
-        <v>1.67663592791365</v>
+        <v>13.86266834397861</v>
       </c>
       <c r="D45">
-        <v>1.681667108115618</v>
+        <v>4.28442209534979</v>
       </c>
       <c r="E45">
-        <v>1.287272887703948</v>
+        <v>5.30780493911743</v>
       </c>
       <c r="F45">
-        <v>6.839189496513888</v>
+        <v>3.271118011857709</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10.31530419258772</v>
+        <v>2.144303942156226</v>
       </c>
       <c r="C46">
-        <v>1.689451683478525</v>
+        <v>14.15249782247147</v>
       </c>
       <c r="D46">
-        <v>1.68369693823739</v>
+        <v>4.354706911363011</v>
       </c>
       <c r="E46">
-        <v>1.291554810073632</v>
+        <v>5.402650540654863</v>
       </c>
       <c r="F46">
-        <v>6.918804257236701</v>
+        <v>3.317727103995707</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10.50585074466677</v>
+        <v>2.168817998804415</v>
       </c>
       <c r="C47">
-        <v>1.702159493096039</v>
+        <v>14.44221555670194</v>
       </c>
       <c r="D47">
-        <v>1.685222043430697</v>
+        <v>4.42482595624814</v>
       </c>
       <c r="E47">
-        <v>1.295727212401063</v>
+        <v>5.497395904948617</v>
       </c>
       <c r="F47">
-        <v>6.996248022509707</v>
+        <v>3.364046413648498</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.69557250774924</v>
+        <v>2.19329584170552</v>
       </c>
       <c r="C48">
-        <v>1.714757947262859</v>
+        <v>14.73181705627113</v>
       </c>
       <c r="D48">
-        <v>1.686246523716611</v>
+        <v>4.494779110396184</v>
       </c>
       <c r="E48">
-        <v>1.299784824215634</v>
+        <v>5.592041668393874</v>
       </c>
       <c r="F48">
-        <v>7.071529107268126</v>
+        <v>3.41006437992165</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.88440972036278</v>
+        <v>2.217737149461878</v>
       </c>
       <c r="C49">
-        <v>1.727245201448315</v>
+        <v>15.02129700693412</v>
       </c>
       <c r="D49">
-        <v>1.686774335868845</v>
+        <v>4.564565950933046</v>
       </c>
       <c r="E49">
-        <v>1.303721426224359</v>
+        <v>5.686588198457891</v>
       </c>
       <c r="F49">
-        <v>7.144655431603788</v>
+        <v>3.455768400025202</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.07229248002865</v>
+        <v>2.242141480999694</v>
       </c>
       <c r="C50">
-        <v>1.739618902119562</v>
+        <v>15.31064914205344</v>
       </c>
       <c r="D50">
-        <v>1.686809277823061</v>
+        <v>4.634185725360398</v>
       </c>
       <c r="E50">
-        <v>1.307529717307548</v>
+        <v>5.781035562808921</v>
       </c>
       <c r="F50">
-        <v>7.215634488671522</v>
+        <v>3.501144764074305</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11.25913921946255</v>
+        <v>2.266508244206707</v>
       </c>
       <c r="C51">
-        <v>1.751876087436792</v>
+        <v>15.59986612260685</v>
       </c>
       <c r="D51">
-        <v>1.686355002792869</v>
+        <v>4.70363729297119</v>
       </c>
       <c r="E51">
-        <v>1.311201133629893</v>
+        <v>5.875383458136956</v>
       </c>
       <c r="F51">
-        <v>7.284473312439346</v>
+        <v>3.546178568622989</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>11.44485470517429</v>
+        <v>2.290836669791148</v>
       </c>
       <c r="C52">
-        <v>1.764013155464033</v>
+        <v>15.8889392945636</v>
       </c>
       <c r="D52">
-        <v>1.685415151265942</v>
+        <v>4.772919068678227</v>
       </c>
       <c r="E52">
-        <v>1.314725743895664</v>
+        <v>5.969631129256795</v>
       </c>
       <c r="F52">
-        <v>7.351179087922241</v>
+        <v>3.590853601189883</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>13.74952595529418</v>
+        <v>2.315125781574551</v>
       </c>
       <c r="C53">
-        <v>2.021036817537042</v>
+        <v>16.17785845556397</v>
       </c>
       <c r="D53">
-        <v>1.952255626611508</v>
+        <v>4.842028977347623</v>
       </c>
       <c r="E53">
-        <v>1.667903185030498</v>
+        <v>6.063777310109836</v>
       </c>
       <c r="F53">
-        <v>8.298061235297313</v>
+        <v>3.635152268093817</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>16.04046374376373</v>
+        <v>2.339374337836695</v>
       </c>
       <c r="C54">
-        <v>2.27585993494384</v>
+        <v>16.46661163399806</v>
       </c>
       <c r="D54">
-        <v>2.211002661628211</v>
+        <v>4.910964341325506</v>
       </c>
       <c r="E54">
-        <v>2.015971028602218</v>
+        <v>6.157820065151701</v>
       </c>
       <c r="F54">
-        <v>9.223228974144417</v>
+        <v>3.679055444994316</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>18.3166279960409</v>
+        <v>2.363580797517254</v>
       </c>
       <c r="C55">
-        <v>2.528494703496627</v>
+        <v>16.75518462923948</v>
       </c>
       <c r="D55">
-        <v>2.461963622749236</v>
+        <v>4.979721803380576</v>
       </c>
       <c r="E55">
-        <v>2.359525679929266</v>
+        <v>6.251756648260844</v>
       </c>
       <c r="F55">
-        <v>10.12687427540256</v>
+        <v>3.722542367533282</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20.5765870881806</v>
+        <v>2.387743244624581</v>
       </c>
       <c r="C56">
-        <v>2.778929127843953</v>
+        <v>17.04356056956779</v>
       </c>
       <c r="D56">
-        <v>2.705389539863801</v>
+        <v>5.048297211329963</v>
       </c>
       <c r="E56">
-        <v>2.69891130089176</v>
+        <v>6.345583377648447</v>
       </c>
       <c r="F56">
-        <v>11.00914271348713</v>
+        <v>3.765590503916198</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22.81853036433418</v>
+        <v>2.411859298484484</v>
       </c>
       <c r="C57">
-        <v>3.027124843791579</v>
+        <v>17.33171952283459</v>
       </c>
       <c r="D57">
-        <v>2.941486237614289</v>
+        <v>5.116685432617098</v>
       </c>
       <c r="E57">
-        <v>3.034294930482083</v>
+        <v>6.43929529952568</v>
       </c>
       <c r="F57">
-        <v>11.87014316402437</v>
+        <v>3.808175366605317</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>25.04025500290137</v>
+        <v>2.435926055635152</v>
       </c>
       <c r="C58">
-        <v>3.273013768929598</v>
+        <v>17.61963750205595</v>
       </c>
       <c r="D58">
-        <v>3.170422470980946</v>
+        <v>5.184880253794884</v>
       </c>
       <c r="E58">
-        <v>3.365707830717379</v>
+        <v>6.532885917110089</v>
       </c>
       <c r="F58">
-        <v>12.70995268599091</v>
+        <v>3.850270411749459</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>27.23913649453896</v>
+        <v>2.459939926224581</v>
       </c>
       <c r="C59">
-        <v>3.516493771689727</v>
+        <v>17.90728564515927</v>
       </c>
       <c r="D59">
-        <v>3.392336120900881</v>
+        <v>5.252874048544728</v>
       </c>
       <c r="E59">
-        <v>3.693069131333901</v>
+        <v>6.626346804224116</v>
       </c>
       <c r="F59">
-        <v>13.52862014119764</v>
+        <v>3.891846789968131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>29.41208588122818</v>
+        <v>2.483896510895775</v>
       </c>
       <c r="C60">
-        <v>3.757423266214507</v>
+        <v>18.19462904529216</v>
       </c>
       <c r="D60">
-        <v>3.607339095232503</v>
+        <v>5.320657538125544</v>
       </c>
       <c r="E60">
-        <v>4.016196937028953</v>
+        <v>6.719667118345265</v>
       </c>
       <c r="F60">
-        <v>14.32616932894493</v>
+        <v>3.932873185372227</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31.55550009854126</v>
+        <v>2.507790465868194</v>
       </c>
       <c r="C61">
-        <v>3.995614642822955</v>
+        <v>18.48162523527272</v>
       </c>
       <c r="D61">
-        <v>3.815521275021285</v>
+        <v>5.38821943697162</v>
       </c>
       <c r="E61">
-        <v>4.334813838500213</v>
+        <v>6.81283298319474</v>
       </c>
       <c r="F61">
-        <v>15.10260082878515</v>
+        <v>3.973315603380292</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>33.66520812624564</v>
+        <v>2.531615225280836</v>
       </c>
       <c r="C62">
-        <v>4.230826368102339</v>
+        <v>18.76822217249869</v>
       </c>
       <c r="D62">
-        <v>4.016953494059151</v>
+        <v>5.455545999845374</v>
       </c>
       <c r="E62">
-        <v>4.648546949006107</v>
+        <v>6.905826664793872</v>
       </c>
       <c r="F62">
-        <v>15.85789317754058</v>
+        <v>4.013137150573624</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>35.7364154694589</v>
+        <v>2.555362769268991</v>
       </c>
       <c r="C63">
-        <v>4.462753870971103</v>
+        <v>19.05435557268231</v>
       </c>
       <c r="D63">
-        <v>4.211689867464552</v>
+        <v>5.522620437442057</v>
       </c>
       <c r="E63">
-        <v>4.9569245819224</v>
+        <v>6.998625554229307</v>
       </c>
       <c r="F63">
-        <v>16.59200405459026</v>
+        <v>4.052297803816968</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>37.76365494219824</v>
+        <v>2.57902331828356</v>
       </c>
       <c r="C64">
-        <v>4.691019073671321</v>
+        <v>19.33994542858641</v>
       </c>
       <c r="D64">
-        <v>4.399769801364094</v>
+        <v>5.589422156840892</v>
       </c>
       <c r="E64">
-        <v>5.259371266868208</v>
+        <v>7.091200884248524</v>
       </c>
       <c r="F64">
-        <v>17.30487125964687</v>
+        <v>4.090754158200999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>39.74075146478101</v>
+        <v>2.602584986393578</v>
       </c>
       <c r="C65">
-        <v>4.915159111070051</v>
+        <v>19.62489137186854</v>
       </c>
       <c r="D65">
-        <v>4.581219746548687</v>
+        <v>5.65592581648454</v>
       </c>
       <c r="E65">
-        <v>5.555201440917084</v>
+        <v>7.183516110563133</v>
       </c>
       <c r="F65">
-        <v>17.99641366903525</v>
+        <v>4.128459181209867</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>41.66081251042134</v>
+        <v>2.626033345185363</v>
       </c>
       <c r="C66">
-        <v>5.134614741964984</v>
+        <v>19.9090667329139</v>
       </c>
       <c r="D66">
-        <v>4.756054685648324</v>
+        <v>5.722100054326459</v>
       </c>
       <c r="E66">
-        <v>5.843613249545067</v>
+        <v>7.275524881430192</v>
       </c>
       <c r="F66">
-        <v>18.66653214482637</v>
+        <v>4.165361972778777</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>43.51625754127536</v>
+        <v>2.649350909693396</v>
       </c>
       <c r="C67">
-        <v>5.348719613056377</v>
+        <v>20.19230954326867</v>
       </c>
       <c r="D67">
-        <v>4.924279409142234</v>
+        <v>5.787905859759852</v>
       </c>
       <c r="E67">
-        <v>6.123683988649898</v>
+        <v>7.367168511918072</v>
       </c>
       <c r="F67">
-        <v>19.31511070360031</v>
+        <v>4.201407545000114</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>45.29890622339148</v>
+        <v>2.67251655102442</v>
       </c>
       <c r="C68">
-        <v>5.556691824231437</v>
+        <v>20.47441159782436</v>
       </c>
       <c r="D68">
-        <v>5.085889667822681</v>
+        <v>5.853294494134499</v>
       </c>
       <c r="E68">
-        <v>6.394369085875276</v>
+        <v>7.458372856704917</v>
       </c>
       <c r="F68">
-        <v>19.94201789962272</v>
+        <v>4.236536644127561</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>47.00013977484345</v>
+        <v>2.695504830460226</v>
       </c>
       <c r="C69">
-        <v>5.757630376247573</v>
+        <v>20.75510361455011</v>
       </c>
       <c r="D69">
-        <v>5.240873292840796</v>
+        <v>5.918204588114312</v>
       </c>
       <c r="E69">
-        <v>6.654506769401958</v>
+        <v>7.549044745577942</v>
       </c>
       <c r="F69">
-        <v>20.54710867570536</v>
+        <v>4.270685629249561</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>48.61115637510513</v>
+        <v>2.718285255344513</v>
       </c>
       <c r="C70">
-        <v>5.950519531828221</v>
+        <v>21.03403503066521</v>
       </c>
       <c r="D70">
-        <v>5.389211303324661</v>
+        <v>5.982558341388247</v>
       </c>
       <c r="E70">
-        <v>6.902831532418106</v>
+        <v>7.639067030163781</v>
       </c>
       <c r="F70">
-        <v>21.13022657510835</v>
+        <v>4.303786453167976</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>50.12332439591951</v>
+        <v>2.74082148632117</v>
       </c>
       <c r="C71">
-        <v>6.13424398940295</v>
+        <v>21.31074740806145</v>
       </c>
       <c r="D71">
-        <v>5.530879025650713</v>
+        <v>6.046256828669931</v>
       </c>
       <c r="E71">
-        <v>7.137998892266669</v>
+        <v>7.728293581939501</v>
       </c>
       <c r="F71">
-        <v>21.69120685046673</v>
+        <v>4.335766854975676</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>51.52863306020619</v>
+        <v>2.763070487147423</v>
       </c>
       <c r="C72">
-        <v>6.307620649775381</v>
+        <v>21.58464085302115</v>
       </c>
       <c r="D72">
-        <v>5.66584727127679</v>
+        <v>6.109173760302092</v>
       </c>
       <c r="E72">
-        <v>7.358624445311918</v>
+        <v>7.81654345617301</v>
       </c>
       <c r="F72">
-        <v>22.22988039453132</v>
+        <v>4.366550757465752</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>52.8202117683918</v>
+        <v>2.784981696242061</v>
       </c>
       <c r="C73">
-        <v>6.469445746019402</v>
+        <v>21.8549321941042</v>
       </c>
       <c r="D73">
-        <v>5.794083630548371</v>
+        <v>6.171147434517637</v>
       </c>
       <c r="E73">
-        <v>7.563338444319942</v>
+        <v>7.903594431241394</v>
       </c>
       <c r="F73">
-        <v>22.7460789816196</v>
+        <v>4.396058955538317</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>53.99287111128557</v>
+        <v>2.806496286654487</v>
       </c>
       <c r="C74">
-        <v>6.618560172960708</v>
+        <v>22.12060662155286</v>
       </c>
       <c r="D74">
-        <v>5.915553924702072</v>
+        <v>6.231970708018691</v>
       </c>
       <c r="E74">
-        <v>7.750855243878736</v>
+        <v>7.98917654818326</v>
       </c>
       <c r="F74">
-        <v>23.23964140548892</v>
+        <v>4.424210211877299</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>55.04359344325969</v>
+        <v>2.827546596133901</v>
       </c>
       <c r="C75">
-        <v>6.753928620928034</v>
+        <v>22.38036753055396</v>
       </c>
       <c r="D75">
-        <v>6.030223822602028</v>
+        <v>6.291379298676222</v>
       </c>
       <c r="E75">
-        <v>7.920054256345471</v>
+        <v>8.07296644476059</v>
       </c>
       <c r="F75">
-        <v>23.71042130523108</v>
+        <v>4.450922985994734</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>55.97189903822995</v>
+        <v>2.848055849615441</v>
       </c>
       <c r="C76">
-        <v>6.874723944615742</v>
+        <v>22.63259439142013</v>
       </c>
       <c r="D76">
-        <v>6.138060736506447</v>
+        <v>6.349039215906863</v>
       </c>
       <c r="E76">
-        <v>8.070064535069958</v>
+        <v>8.15458351429138</v>
       </c>
       <c r="F76">
-        <v>24.15829783201084</v>
+        <v>4.476117633676211</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>56.7799985241874</v>
+        <v>2.867938483992304</v>
       </c>
       <c r="C77">
-        <v>6.980405026373637</v>
+        <v>22.87532768158549</v>
       </c>
       <c r="D77">
-        <v>6.239035984408805</v>
+        <v>6.404534835288472</v>
       </c>
       <c r="E77">
-        <v>8.20034282807077</v>
+        <v>8.233589395815565</v>
       </c>
       <c r="F77">
-        <v>24.58318710949757</v>
+        <v>4.499719226153569</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>57.47271672849817</v>
+        <v>2.887100950786819</v>
       </c>
       <c r="C78">
-        <v>7.070774701487855</v>
+        <v>23.10630229152264</v>
       </c>
       <c r="D78">
-        <v>6.333127257296169</v>
+        <v>6.457361608816372</v>
       </c>
       <c r="E78">
-        <v>8.31073331075954</v>
+        <v>8.309492422811976</v>
       </c>
       <c r="F78">
-        <v>24.98505498065715</v>
+        <v>4.521660958117161</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>58.05717381042755</v>
+        <v>2.905443349511368</v>
       </c>
       <c r="C79">
-        <v>7.146005876151555</v>
+        <v>23.32305678723877</v>
       </c>
       <c r="D79">
-        <v>6.42032138754147</v>
+        <v>6.506929174329458</v>
       </c>
       <c r="E79">
-        <v>8.401495801179836</v>
+        <v>8.381760168467885</v>
       </c>
       <c r="F79">
-        <v>25.36393205837011</v>
+        <v>4.541887800137202</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>58.54227319133344</v>
+        <v>2.922862048945512</v>
       </c>
       <c r="C80">
-        <v>7.206630555707696</v>
+        <v>23.52313211432738</v>
       </c>
       <c r="D80">
-        <v>6.500617435847331</v>
+        <v>6.552581456708165</v>
       </c>
       <c r="E80">
-        <v>8.473299719566414</v>
+        <v>8.449839431327048</v>
       </c>
       <c r="F80">
-        <v>25.71992912146508</v>
+        <v>4.560360067025654</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>58.93808435900847</v>
+        <v>2.939253250021468</v>
       </c>
       <c r="C81">
-        <v>7.25349348322652</v>
+        <v>23.7043475746466</v>
       </c>
       <c r="D81">
-        <v>6.574030009562613</v>
+        <v>6.593641616163016</v>
       </c>
       <c r="E81">
-        <v>8.52718080278291</v>
+        <v>8.51318530353544</v>
       </c>
       <c r="F81">
-        <v>26.05325077313063</v>
+        <v>4.577056389668245</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>59.25520733476081</v>
+        <v>2.954517364647549</v>
       </c>
       <c r="C82">
-        <v>7.287679987762398</v>
+        <v>23.86510287411059</v>
       </c>
       <c r="D82">
-        <v>6.640592712031371</v>
+        <v>6.629480057027361</v>
       </c>
       <c r="E82">
-        <v>8.564467792077117</v>
+        <v>8.571298041685232</v>
       </c>
       <c r="F82">
-        <v>26.36420904947908</v>
+        <v>4.591975585503536</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>59.50420148331764</v>
+        <v>2.96856401916217</v>
       </c>
       <c r="C83">
-        <v>7.310430598944197</v>
+        <v>24.00462651211378</v>
       </c>
       <c r="D83">
-        <v>6.700361549638997</v>
+        <v>6.659598996466515</v>
       </c>
       <c r="E83">
-        <v>8.586691550928711</v>
+        <v>8.623762833402898</v>
       </c>
       <c r="F83">
-        <v>26.65323219126662</v>
+        <v>4.605137031179642</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>59.69512987141459</v>
+        <v>2.981317189097767</v>
       </c>
       <c r="C84">
-        <v>7.323056620125358</v>
+        <v>24.12308988285109</v>
       </c>
       <c r="D84">
-        <v>6.753418066529528</v>
+        <v>6.683712524731813</v>
       </c>
       <c r="E84">
-        <v>8.595489354456983</v>
+        <v>8.670287001643651</v>
       </c>
       <c r="F84">
-        <v>26.9208672732908</v>
+        <v>4.616579523801232</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>59.83724158055672</v>
+        <v>2.992719925671689</v>
       </c>
       <c r="C85">
-        <v>7.326866404452296</v>
+        <v>24.22155437009321</v>
       </c>
       <c r="D85">
-        <v>6.799871417521758</v>
+        <v>6.701797484223173</v>
       </c>
       <c r="E85">
-        <v>8.592516265608673</v>
+        <v>8.710728071105207</v>
       </c>
       <c r="F85">
-        <v>27.16777769499653</v>
+        <v>4.626358740570785</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>59.78254599192187</v>
+        <v>3.002738055193579</v>
       </c>
       <c r="C86">
-        <v>7.288832765022839</v>
+        <v>24.3017764365771</v>
       </c>
       <c r="D86">
-        <v>6.74397255056234</v>
+        <v>6.714097608249474</v>
       </c>
       <c r="E86">
-        <v>8.533177513056337</v>
+        <v>8.745106746893031</v>
       </c>
       <c r="F86">
-        <v>27.13738151727482</v>
+        <v>4.634543859589815</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>59.72451712976765</v>
+        <v>3.01136245735806</v>
       </c>
       <c r="C87">
-        <v>7.25028052295851</v>
+        <v>24.3659357407403</v>
       </c>
       <c r="D87">
-        <v>6.687678261430157</v>
+        <v>6.721079921837914</v>
       </c>
       <c r="E87">
-        <v>8.473047028552056</v>
+        <v>8.773602526269288</v>
       </c>
       <c r="F87">
-        <v>27.10512403827421</v>
+        <v>4.641213779914445</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>59.66377334858848</v>
+        <v>3.018609183340752</v>
       </c>
       <c r="C88">
-        <v>7.211314170620153</v>
+        <v>24.41636630420873</v>
       </c>
       <c r="D88">
-        <v>6.631008999450133</v>
+        <v>6.72335985446702</v>
       </c>
       <c r="E88">
-        <v>8.412261745097673</v>
+        <v>8.796533187923208</v>
       </c>
       <c r="F88">
-        <v>27.07109935735588</v>
+        <v>4.646453469414864</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>59.60082955503552</v>
+        <v>3.024518177254546</v>
       </c>
       <c r="C89">
-        <v>7.172024209945358</v>
+        <v>24.4553401551819</v>
       </c>
       <c r="D89">
-        <v>6.573988578866892</v>
+        <v>6.721618726656478</v>
       </c>
       <c r="E89">
-        <v>8.350942214310356</v>
+        <v>8.814322559546465</v>
       </c>
       <c r="F89">
-        <v>27.03540591234266</v>
+        <v>4.650350738834492</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>59.5361116156916</v>
+        <v>3.029150233869013</v>
       </c>
       <c r="C90">
-        <v>7.132488623741184</v>
+        <v>24.48493200177435</v>
       </c>
       <c r="D90">
-        <v>6.516643363731145</v>
+        <v>6.71653334157637</v>
       </c>
       <c r="E90">
-        <v>8.289193240426529</v>
+        <v>8.827463043108459</v>
       </c>
       <c r="F90">
-        <v>26.99814500481352</v>
+        <v>4.652993615609758</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>59.46996889352602</v>
+        <v>3.032582723533051</v>
       </c>
       <c r="C91">
-        <v>7.092773676617815</v>
+        <v>24.50694618609182</v>
       </c>
       <c r="D91">
-        <v>6.459001745679861</v>
+        <v>6.708727575956119</v>
       </c>
       <c r="E91">
-        <v>8.227104514465051</v>
+        <v>8.836478948616572</v>
       </c>
       <c r="F91">
-        <v>26.95941867050378</v>
+        <v>4.654468356302561</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>59.40268549676575</v>
+        <v>3.034904860529879</v>
       </c>
       <c r="C92">
-        <v>7.052935096251121</v>
+        <v>24.52290075220371</v>
       </c>
       <c r="D92">
-        <v>6.401093636015085</v>
+        <v>6.698746476369986</v>
       </c>
       <c r="E92">
-        <v>8.164751882844389</v>
+        <v>8.841894988241766</v>
       </c>
       <c r="F92">
-        <v>26.91932784833619</v>
+        <v>4.654858041739569</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>59.3344903329226</v>
+        <v>3.036212930219593</v>
       </c>
       <c r="C93">
-        <v>7.013019314708893</v>
+        <v>24.53404157637957</v>
       </c>
       <c r="D93">
-        <v>6.342949945063632</v>
+        <v>6.687048034125691</v>
       </c>
       <c r="E93">
-        <v>8.102198867602009</v>
+        <v>8.844212465874893</v>
       </c>
       <c r="F93">
-        <v>26.87797086545851</v>
+        <v>4.654241660546862</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>59.26556775480346</v>
+        <v>3.036605894520954</v>
       </c>
       <c r="C94">
-        <v>6.973064770518372</v>
+        <v>24.54137377230309</v>
       </c>
       <c r="D94">
-        <v>6.284601977598465</v>
+        <v>6.674006427616911</v>
       </c>
       <c r="E94">
-        <v>8.039498242399221</v>
+        <v>8.843893421559875</v>
       </c>
       <c r="F94">
-        <v>26.83544239292836</v>
+        <v>4.652693587331146</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>59.19606559229087</v>
+        <v>3.036181727411961</v>
       </c>
       <c r="C95">
-        <v>6.933103226211487</v>
+        <v>24.5456985456876</v>
       </c>
       <c r="D95">
-        <v>6.226080938790526</v>
+        <v>6.659921301813511</v>
       </c>
       <c r="E95">
-        <v>7.976693726228893</v>
+        <v>8.841351895886753</v>
       </c>
       <c r="F95">
-        <v>26.79183249295367</v>
+        <v>4.65028333616757</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>59.12610171288953</v>
+        <v>3.03503456302683</v>
       </c>
       <c r="C96">
-        <v>6.893160816368185</v>
+        <v>24.54764947964284</v>
       </c>
       <c r="D96">
-        <v>6.167417526546448</v>
+        <v>6.645029279179101</v>
       </c>
       <c r="E96">
-        <v>7.913821373816379</v>
+        <v>8.836950853835152</v>
       </c>
       <c r="F96">
-        <v>26.74722614567859</v>
+        <v>4.647075535706688</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>59.05577009625637</v>
+        <v>3.033252698874867</v>
       </c>
       <c r="C97">
-        <v>6.853258961553163</v>
+        <v>24.54772537771419</v>
       </c>
       <c r="D97">
-        <v>6.108641571446606</v>
+        <v>6.629515447672497</v>
       </c>
       <c r="E97">
-        <v>7.85091082048803</v>
+        <v>8.831003036757451</v>
       </c>
       <c r="F97">
-        <v>26.70170302835414</v>
+        <v>4.643130032731528</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>58.98514576500363</v>
+        <v>3.030917338560734</v>
       </c>
       <c r="C98">
-        <v>6.81341521231077</v>
+        <v>24.54631787035408</v>
       </c>
       <c r="D98">
-        <v>6.049781759323833</v>
+        <v>6.613523762735408</v>
       </c>
       <c r="E98">
-        <v>7.787986425983037</v>
+        <v>8.823774301964509</v>
       </c>
       <c r="F98">
-        <v>26.6553374097706</v>
+        <v>4.638502092285431</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>58.91428860409275</v>
+        <v>3.028101977184293</v>
       </c>
       <c r="C99">
-        <v>6.77364396049758</v>
+        <v>24.54373405552834</v>
       </c>
       <c r="D99">
-        <v>5.990865446682962</v>
+        <v>6.597165791391308</v>
       </c>
       <c r="E99">
-        <v>7.725068259308077</v>
+        <v>8.815488311335681</v>
       </c>
       <c r="F99">
-        <v>26.6081982089186</v>
+        <v>4.633242648052489</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>58.84324633552308</v>
+        <v>3.024872267475484</v>
       </c>
       <c r="C100">
-        <v>6.733957060642619</v>
+        <v>24.54021492162373</v>
       </c>
       <c r="D100">
-        <v>5.931918542952529</v>
+        <v>6.580527827110841</v>
       </c>
       <c r="E100">
-        <v>7.662172895459858</v>
+        <v>8.806331739292652</v>
       </c>
       <c r="F100">
-        <v>26.56034915777738</v>
+        <v>4.627398582830312</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>58.77205697770782</v>
+        <v>3.02128623055425</v>
       </c>
       <c r="C101">
-        <v>6.694364189436188</v>
+        <v>24.53594978201902</v>
       </c>
       <c r="D101">
-        <v>5.872965450706231</v>
+        <v>6.563676637279465</v>
       </c>
       <c r="E101">
-        <v>7.599313953737248</v>
+        <v>8.796459448498773</v>
       </c>
       <c r="F101">
-        <v>26.51184904249143</v>
+        <v>4.621013017655267</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>58.70075089703641</v>
+        <v>3.017394705159067</v>
       </c>
       <c r="C102">
-        <v>6.654873283352516</v>
+        <v>24.53108766535367</v>
       </c>
       <c r="D102">
-        <v>5.814029050830618</v>
+        <v>6.546663897466225</v>
       </c>
       <c r="E102">
-        <v>7.536502732414296</v>
+        <v>8.785999369232504</v>
       </c>
       <c r="F102">
-        <v>26.46275198232482</v>
+        <v>4.614125599519722</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>58.62935242709145</v>
+        <v>3.013241927774832</v>
       </c>
       <c r="C103">
-        <v>6.615490899380084</v>
+        <v>24.52574620510741</v>
       </c>
       <c r="D103">
-        <v>5.755130728621382</v>
+        <v>6.529529693885279</v>
       </c>
       <c r="E103">
-        <v>7.473748668558124</v>
+        <v>8.77505687045997</v>
       </c>
       <c r="F103">
-        <v>26.41310772418998</v>
+        <v>4.60677277955486</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>58.55788109887374</v>
+        <v>3.008866173989925</v>
       </c>
       <c r="C104">
-        <v>6.576222449574431</v>
+        <v>24.52001847785132</v>
       </c>
       <c r="D104">
-        <v>5.696290423553256</v>
+        <v>6.512305173634831</v>
       </c>
       <c r="E104">
-        <v>7.411059658764199</v>
+        <v>8.763718544621641</v>
       </c>
       <c r="F104">
-        <v>26.36296194703489</v>
+        <v>4.598988079014206</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>58.486352598283</v>
+        <v>3.00430041092282</v>
       </c>
       <c r="C105">
-        <v>6.537072398942306</v>
+        <v>24.51397838099681</v>
       </c>
       <c r="D105">
-        <v>5.637526694969937</v>
+        <v>6.495014601305772</v>
       </c>
       <c r="E105">
-        <v>7.348442345505922</v>
+        <v>8.752055449398338</v>
       </c>
       <c r="F105">
-        <v>26.31235656700344</v>
+        <v>4.590802336396147</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>58.41477954375053</v>
+        <v>2.999572944142205</v>
       </c>
       <c r="C106">
-        <v>6.498044440613659</v>
+        <v>24.50768478743697</v>
       </c>
       <c r="D106">
-        <v>5.578856792752663</v>
+        <v>6.477676944411265</v>
       </c>
       <c r="E106">
-        <v>7.285902366100186</v>
+        <v>8.740125859565389</v>
       </c>
       <c r="F106">
-        <v>26.2613300302072</v>
+        <v>4.582243936654344</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>58.34317211781233</v>
+        <v>2.99470801860855</v>
       </c>
       <c r="C107">
-        <v>6.459141648325074</v>
+        <v>24.5011847362346</v>
       </c>
       <c r="D107">
-        <v>5.520296746774869</v>
+        <v>6.460307062790078</v>
       </c>
       <c r="E107">
-        <v>7.223444542546265</v>
+        <v>8.727977578274732</v>
       </c>
       <c r="F107">
-        <v>26.20991760589474</v>
+        <v>4.573339021987759</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>58.27153856379399</v>
+        <v>2.989726358715708</v>
       </c>
       <c r="C108">
-        <v>6.420366589818395</v>
+        <v>24.49451595332321</v>
       </c>
       <c r="D108">
-        <v>5.461861458395961</v>
+        <v>6.442916644822501</v>
       </c>
       <c r="E108">
-        <v>7.161073062904936</v>
+        <v>8.715649826443107</v>
       </c>
       <c r="F108">
-        <v>26.15815164240438</v>
+        <v>4.564111687895677</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>58.19988557023558</v>
+        <v>2.984645652373848</v>
       </c>
       <c r="C109">
-        <v>6.381721411995219</v>
+        <v>24.48770880508442</v>
       </c>
       <c r="D109">
-        <v>5.403564782962831</v>
+        <v>6.425514910468656</v>
       </c>
       <c r="E109">
-        <v>7.098791577716485</v>
+        <v>8.703174804192086</v>
       </c>
       <c r="F109">
-        <v>26.10606181572568</v>
+        <v>4.554584161282301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>58.12821857421908</v>
+        <v>2.979480983259612</v>
       </c>
       <c r="C110">
-        <v>6.34320792574841</v>
+        <v>24.48078780897378</v>
       </c>
       <c r="D110">
-        <v>5.345419610617745</v>
+        <v>6.408109156757809</v>
       </c>
       <c r="E110">
-        <v>7.036603294218152</v>
+        <v>8.690578970681546</v>
       </c>
       <c r="F110">
-        <v>26.05367535823418</v>
+        <v>4.544776962363385</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>58.0565420064588</v>
+        <v>2.974245210058339</v>
       </c>
       <c r="C111">
-        <v>6.304827648987986</v>
+        <v>24.4737728256354</v>
       </c>
       <c r="D111">
-        <v>5.287437944076044</v>
+        <v>6.390705175040284</v>
       </c>
       <c r="E111">
-        <v>6.974511066059581</v>
+        <v>8.677884093906341</v>
       </c>
       <c r="F111">
-        <v>26.00101727456829</v>
+        <v>4.534709052066649</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>57.9848594889577</v>
+        <v>2.968949293604666</v>
       </c>
       <c r="C112">
-        <v>6.266581853666668</v>
+        <v>24.46667999129292</v>
       </c>
       <c r="D112">
-        <v>5.229630972416297</v>
+        <v>6.373307577862949</v>
       </c>
       <c r="E112">
-        <v>6.912517462758937</v>
+        <v>8.665108107290223</v>
       </c>
       <c r="F112">
-        <v>25.94811053519026</v>
+        <v>4.524397966345339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>57.91317399171238</v>
+        <v>2.963602577618683</v>
       </c>
       <c r="C113">
-        <v>6.228471620449279</v>
+        <v>24.45952248807991</v>
       </c>
       <c r="D113">
-        <v>5.172009141333982</v>
+        <v>6.355920065732725</v>
       </c>
       <c r="E113">
-        <v>6.850624826820527</v>
+        <v>8.652265806520164</v>
       </c>
       <c r="F113">
-        <v>25.89497625442726</v>
+        <v>4.513859938254575</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>57.84148795636308</v>
+        <v>2.958213029860003</v>
       </c>
       <c r="C114">
-        <v>6.190497868801334</v>
+        <v>24.4523111366788</v>
       </c>
       <c r="D114">
-        <v>5.114582218005631</v>
+        <v>6.338545615172039</v>
       </c>
       <c r="E114">
-        <v>6.788835322839324</v>
+        <v>8.63936941679251</v>
       </c>
       <c r="F114">
-        <v>25.84163385171869</v>
+        <v>4.503110008681688</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>57.76980339510768</v>
+        <v>2.952787448758579</v>
       </c>
       <c r="C115">
-        <v>6.152661390393118</v>
+        <v>24.44505482916062</v>
       </c>
       <c r="D115">
-        <v>5.05735935015917</v>
+        <v>6.321186619663377</v>
       </c>
       <c r="E115">
-        <v>6.727150967121616</v>
+        <v>8.626429055711972</v>
       </c>
       <c r="F115">
-        <v>25.78810120051037</v>
+        <v>4.492162124814429</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>57.69812197087062</v>
+        <v>2.94733163938165</v>
       </c>
       <c r="C116">
-        <v>6.114962863605387</v>
+        <v>24.43776088405391</v>
       </c>
       <c r="D116">
-        <v>5.000349119863343</v>
+        <v>6.303845006078613</v>
       </c>
       <c r="E116">
-        <v>6.665573656626133</v>
+        <v>8.613453111042922</v>
       </c>
       <c r="F116">
-        <v>25.73439476369046</v>
+        <v>4.481029234744526</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>57.62644505661336</v>
+        <v>2.941850562698365</v>
       </c>
       <c r="C117">
-        <v>6.077402872350391</v>
+        <v>24.43043531664403</v>
       </c>
       <c r="D117">
-        <v>4.943559592960512</v>
+        <v>6.286522333829892</v>
       </c>
       <c r="E117">
-        <v>6.604105193985236</v>
+        <v>8.600448548659326</v>
       </c>
       <c r="F117">
-        <v>25.68052971655721</v>
+        <v>4.469723363674784</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>57.55477379938127</v>
+        <v>2.936348462151082</v>
       </c>
       <c r="C118">
-        <v>6.039981921554104</v>
+        <v>24.42308311965495</v>
       </c>
       <c r="D118">
-        <v>4.886998363891849</v>
+        <v>6.269219874155289</v>
       </c>
       <c r="E118">
-        <v>6.542747307858358</v>
+        <v>8.587421163712433</v>
       </c>
       <c r="F118">
-        <v>25.62652005794606</v>
+        <v>4.458255709881318</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>57.48310914899329</v>
+        <v>2.930828971156144</v>
       </c>
       <c r="C119">
-        <v>6.002700449904721</v>
+        <v>24.41570845733266</v>
       </c>
       <c r="D119">
-        <v>4.830672597503201</v>
+        <v>6.251938668869262</v>
       </c>
       <c r="E119">
-        <v>6.481501670560447</v>
+        <v>8.574375785927529</v>
       </c>
       <c r="F119">
-        <v>25.57237871115839</v>
+        <v>4.446636690334366</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>57.41145191338799</v>
+        <v>2.925295204500299</v>
       </c>
       <c r="C120">
-        <v>5.965558840106295</v>
+        <v>24.40831480853</v>
       </c>
       <c r="D120">
-        <v>4.77458906590991</v>
+        <v>6.234679573253728</v>
       </c>
       <c r="E120">
-        <v>6.420369912073034</v>
+        <v>8.5613164477274</v>
       </c>
       <c r="F120">
-        <v>25.51811761633709</v>
+        <v>4.434876007468537</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>57.33980277122851</v>
+        <v>2.919749835209767</v>
       </c>
       <c r="C121">
-        <v>5.928557428208526</v>
+        <v>24.40090508282112</v>
       </c>
       <c r="D121">
-        <v>4.718754182376864</v>
+        <v>6.217443290489254</v>
       </c>
       <c r="E121">
-        <v>6.359353630553044</v>
+        <v>8.548246522030192</v>
       </c>
       <c r="F121">
-        <v>25.46374781096046</v>
+        <v>4.422982717415117</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>57.26816228243066</v>
+        <v>2.914195160045434</v>
       </c>
       <c r="C122">
-        <v>5.891696510225825</v>
+        <v>24.39348171753272</v>
       </c>
       <c r="D122">
-        <v>4.663174031953996</v>
+        <v>6.200230397242335</v>
       </c>
       <c r="E122">
-        <v>6.298454401865854</v>
+        <v>8.535168826857735</v>
       </c>
       <c r="F122">
-        <v>25.40927951301132</v>
+        <v>4.410965263174549</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>57.19653092957596</v>
+        <v>2.908633154292392</v>
       </c>
       <c r="C123">
-        <v>5.85497634835747</v>
+        <v>24.38604674942475</v>
       </c>
       <c r="D123">
-        <v>4.607854399174038</v>
+        <v>6.183041375594129</v>
       </c>
       <c r="E123">
-        <v>6.2376737876848</v>
+        <v>8.522085735984216</v>
       </c>
       <c r="F123">
-        <v>25.35472217754692</v>
+        <v>4.398831532818673</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>57.12490911041829</v>
+        <v>2.903065518034889</v>
       </c>
       <c r="C124">
-        <v>5.818397175116046</v>
+        <v>24.37860191440352</v>
       </c>
       <c r="D124">
-        <v>4.552800793105653</v>
+        <v>6.165876620118965</v>
       </c>
       <c r="E124">
-        <v>6.177013342262706</v>
+        <v>8.508999247984674</v>
       </c>
       <c r="F124">
-        <v>25.30008458743449</v>
+        <v>4.386588905255145</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>57.05329716451091</v>
+        <v>2.897493716619729</v>
       </c>
       <c r="C125">
-        <v>5.781959197375548</v>
+        <v>24.3711486613658</v>
       </c>
       <c r="D125">
-        <v>4.498018470093134</v>
+        <v>6.148736477372318</v>
       </c>
       <c r="E125">
-        <v>6.116474617653483</v>
+        <v>8.495911041470055</v>
       </c>
       <c r="F125">
-        <v>25.24537487848444</v>
+        <v>4.374244284529028</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>56.98169538274524</v>
+        <v>2.89191902305435</v>
       </c>
       <c r="C126">
-        <v>5.745662600280555</v>
+        <v>24.36368825430819</v>
       </c>
       <c r="D126">
-        <v>4.443512454529616</v>
+        <v>6.131621227024228</v>
       </c>
       <c r="E126">
-        <v>6.056059170823633</v>
+        <v>8.482822554174435</v>
       </c>
       <c r="F126">
-        <v>25.1906006036153</v>
+        <v>4.361804135470094</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>56.91010401529828</v>
+        <v>2.886342534232446</v>
       </c>
       <c r="C127">
-        <v>5.709507549029941</v>
+        <v>24.35622175401238</v>
       </c>
       <c r="D127">
-        <v>4.389287556984593</v>
+        <v>6.114531113301112</v>
       </c>
       <c r="E127">
-        <v>5.995768563345034</v>
+        <v>8.469734983987637</v>
       </c>
       <c r="F127">
-        <v>25.13576878951488</v>
+        <v>4.349274522384881</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>56.83852327568145</v>
+        <v>2.880765199752049</v>
       </c>
       <c r="C128">
-        <v>5.673494194485953</v>
+        <v>24.34875005687886</v>
       </c>
       <c r="D128">
-        <v>4.335348391182839</v>
+        <v>6.097466340838072</v>
       </c>
       <c r="E128">
-        <v>5.935604374278395</v>
+        <v>8.456649344688415</v>
       </c>
       <c r="F128">
-        <v>25.08088595614336</v>
+        <v>4.336661131085612</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>56.76695335184201</v>
+        <v>2.875187846603756</v>
       </c>
       <c r="C129">
-        <v>5.637622669400834</v>
+        <v>24.34127395048008</v>
       </c>
       <c r="D129">
-        <v>4.281699389146954</v>
+        <v>6.080427080358851</v>
       </c>
       <c r="E129">
-        <v>5.875568190436733</v>
+        <v>8.443566497693574</v>
       </c>
       <c r="F129">
-        <v>25.02595817726791</v>
+        <v>4.323969299106946</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>56.69539440310754</v>
+        <v>2.869611186964362</v>
       </c>
       <c r="C130">
-        <v>5.60189309968508</v>
+        <v>24.33379407910758</v>
       </c>
       <c r="D130">
-        <v>4.228344814843524</v>
+        <v>6.063413481253136</v>
       </c>
       <c r="E130">
-        <v>5.81566162292189</v>
+        <v>8.430487175495603</v>
       </c>
       <c r="F130">
-        <v>24.97099110831527</v>
+        <v>4.311204043774381</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>56.62384656826495</v>
+        <v>2.864035841052579</v>
       </c>
       <c r="C131">
-        <v>5.566305593371546</v>
+        <v>24.32631100985764</v>
       </c>
       <c r="D131">
-        <v>4.175288775113594</v>
+        <v>6.046425670310317</v>
       </c>
       <c r="E131">
-        <v>5.755886296139777</v>
+        <v>8.417412003256837</v>
       </c>
       <c r="F131">
-        <v>24.91599001773371</v>
+        <v>4.298370081779364</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>56.55230996865021</v>
+        <v>2.858462349734527</v>
       </c>
       <c r="C132">
-        <v>5.530860255032492</v>
+        <v>24.31882522250798</v>
       </c>
       <c r="D132">
-        <v>4.12253523494056</v>
+        <v>6.029463758677204</v>
       </c>
       <c r="E132">
-        <v>5.696243860488702</v>
+        <v>8.404341514531005</v>
       </c>
       <c r="F132">
-        <v>24.86095982613732</v>
+        <v>4.28547185125183</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>56.48078471019829</v>
+        <v>2.852891185353936</v>
       </c>
       <c r="C133">
-        <v>5.495557174076275</v>
+        <v>24.31133713362086</v>
       </c>
       <c r="D133">
-        <v>4.070088021205068</v>
+        <v>6.012527845557613</v>
       </c>
       <c r="E133">
-        <v>5.636735987255239</v>
+        <v>8.391276170501902</v>
       </c>
       <c r="F133">
-        <v>24.80590512289994</v>
+        <v>4.272513533791916</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>56.40927088622948</v>
+        <v>2.847322759810789</v>
       </c>
       <c r="C134">
-        <v>5.460396435695979</v>
+        <v>24.30384710883448</v>
       </c>
       <c r="D134">
-        <v>4.017950841680875</v>
+        <v>5.995618016657429</v>
       </c>
       <c r="E134">
-        <v>5.577364374858184</v>
+        <v>8.378216362224608</v>
       </c>
       <c r="F134">
-        <v>24.75083019397847</v>
+        <v>4.259499069567687</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>56.33776858032859</v>
+        <v>2.841757433637576</v>
       </c>
       <c r="C135">
-        <v>5.425378114494846</v>
+        <v>24.29635545834521</v>
       </c>
       <c r="D135">
-        <v>3.966127281185551</v>
+        <v>5.978734350910391</v>
       </c>
       <c r="E135">
-        <v>5.518130748691849</v>
+        <v>8.365162425908736</v>
       </c>
       <c r="F135">
-        <v>24.69573905075927</v>
+        <v>4.246432174077028</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>56.26627786630795</v>
+        <v>2.836195523023902</v>
       </c>
       <c r="C136">
-        <v>5.39050227957308</v>
+        <v>24.28886246180713</v>
       </c>
       <c r="D136">
-        <v>3.914620819605087</v>
+        <v>5.961876916495615</v>
       </c>
       <c r="E136">
-        <v>5.459036863414206</v>
+        <v>8.352114651388383</v>
       </c>
       <c r="F136">
-        <v>24.6406354404734</v>
+        <v>4.233316355437379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>56.19479881025316</v>
+        <v>2.830637304060526</v>
       </c>
       <c r="C137">
-        <v>5.355768992840378</v>
+        <v>24.28136835302927</v>
       </c>
       <c r="D137">
-        <v>3.863434829932662</v>
+        <v>5.945045775739559</v>
       </c>
       <c r="E137">
-        <v>5.400084504484738</v>
+        <v>8.339073287570059</v>
       </c>
       <c r="F137">
-        <v>24.58552287361939</v>
+        <v>4.220154926365691</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>56.12333147188097</v>
+        <v>2.82508301931825</v>
       </c>
       <c r="C138">
-        <v>5.321178310913588</v>
+        <v>24.27387334078405</v>
       </c>
       <c r="D138">
-        <v>3.812572588492159</v>
+        <v>5.928240984652826</v>
       </c>
       <c r="E138">
-        <v>5.341275488905947</v>
+        <v>8.326038547301483</v>
       </c>
       <c r="F138">
-        <v>24.5304046390546</v>
+        <v>4.206951017442239</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>56.05187590468838</v>
+        <v>2.819532881562491</v>
       </c>
       <c r="C139">
-        <v>5.286730284276777</v>
+        <v>24.26637760385118</v>
       </c>
       <c r="D139">
-        <v>3.762037280062769</v>
+        <v>5.911462594363344</v>
       </c>
       <c r="E139">
-        <v>5.282611667439191</v>
+        <v>8.313010622864086</v>
       </c>
       <c r="F139">
-        <v>24.47528381825587</v>
+        <v>4.193707588431921</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>55.98043215714152</v>
+        <v>2.813987078368746</v>
       </c>
       <c r="C140">
-        <v>5.252424959171988</v>
+        <v>24.25888129901786</v>
       </c>
       <c r="D140">
-        <v>3.711832000513713</v>
+        <v>5.894710652126352</v>
       </c>
       <c r="E140">
-        <v>5.224094924579585</v>
+        <v>8.299989667307479</v>
       </c>
       <c r="F140">
-        <v>24.42016330482733</v>
+        <v>4.180427441917029</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>55.90900027403313</v>
+        <v>2.808445776204432</v>
       </c>
       <c r="C141">
-        <v>5.218262375893982</v>
+        <v>24.25138456465922</v>
       </c>
       <c r="D141">
-        <v>3.661959765040642</v>
+        <v>5.877985201780427</v>
       </c>
       <c r="E141">
-        <v>5.165727180997801</v>
+        <v>8.28697583561506</v>
       </c>
       <c r="F141">
-        <v>24.36504581365055</v>
+        <v>4.167113232816643</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>55.83758029620401</v>
+        <v>2.802909119655158</v>
       </c>
       <c r="C142">
-        <v>5.184242571051698</v>
+        <v>24.24388752130264</v>
       </c>
       <c r="D142">
-        <v>3.612423507463047</v>
+        <v>5.861286284220046</v>
       </c>
       <c r="E142">
-        <v>5.107510393764189</v>
+        <v>8.273969243376456</v>
       </c>
       <c r="F142">
-        <v>24.30993389448402</v>
+        <v>4.153767473226448</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>55.76617226140338</v>
+        <v>2.797377243397724</v>
       </c>
       <c r="C143">
-        <v>5.150365575798189</v>
+        <v>24.23639027665957</v>
       </c>
       <c r="D143">
-        <v>3.563226088066022</v>
+        <v>5.844613938115999</v>
       </c>
       <c r="E143">
-        <v>5.04944655812916</v>
+        <v>8.260970006427</v>
       </c>
       <c r="F143">
-        <v>24.25482994639929</v>
+        <v>4.140392557582345</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>55.69477620605077</v>
+        <v>2.791850257702474</v>
       </c>
       <c r="C144">
-        <v>5.116631417540769</v>
+        <v>24.22889292471275</v>
       </c>
       <c r="D144">
-        <v>3.514370292357298</v>
+        <v>5.827968199565537</v>
       </c>
       <c r="E144">
-        <v>4.991537708465612</v>
+        <v>8.247978222256453</v>
       </c>
       <c r="F144">
-        <v>24.19973622386503</v>
+        <v>4.126990740121619</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>55.62339216189292</v>
+        <v>2.786328271162901</v>
       </c>
       <c r="C145">
-        <v>5.083040119000473</v>
+        <v>24.22139554878894</v>
       </c>
       <c r="D145">
-        <v>3.465858836758456</v>
+        <v>5.811349103112156</v>
       </c>
       <c r="E145">
-        <v>4.933785919503663</v>
+        <v>8.234993971328715</v>
       </c>
       <c r="F145">
-        <v>24.14465484982085</v>
+        <v>4.113564182975113</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>55.55202016177515</v>
+        <v>2.780811369877399</v>
       </c>
       <c r="C146">
-        <v>5.049591699016636</v>
+        <v>24.21389822270573</v>
       </c>
       <c r="D146">
-        <v>3.417694368886401</v>
+        <v>5.794756681425614</v>
       </c>
       <c r="E146">
-        <v>4.876193307441222</v>
+        <v>8.222017332382112</v>
       </c>
       <c r="F146">
-        <v>24.08958782416386</v>
+        <v>4.100114918537269</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>55.48066023369658</v>
+        <v>2.775299638402782</v>
       </c>
       <c r="C147">
-        <v>5.016286172289507</v>
+        <v>24.20640101114095</v>
       </c>
       <c r="D147">
-        <v>3.369879469862295</v>
+        <v>5.77819096587939</v>
       </c>
       <c r="E147">
-        <v>4.818762031104649</v>
+        <v>8.209048367343291</v>
       </c>
       <c r="F147">
-        <v>24.03453703063655</v>
+        <v>4.086644895816222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>55.40931240643979</v>
+        <v>2.769793146294794</v>
       </c>
       <c r="C148">
-        <v>4.9831235497316</v>
+        <v>24.19890397196935</v>
       </c>
       <c r="D148">
-        <v>3.322416657090198</v>
+        <v>5.761651986675942</v>
       </c>
       <c r="E148">
-        <v>4.761494293009035</v>
+        <v>8.19608713586573</v>
       </c>
       <c r="F148">
-        <v>23.97950424540408</v>
+        <v>4.07315595825126</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>55.33797670633913</v>
+        <v>2.764291958761541</v>
       </c>
       <c r="C149">
-        <v>4.950103838292778</v>
+        <v>24.19140715623929</v>
       </c>
       <c r="D149">
-        <v>3.275308383624305</v>
+        <v>5.745139772947068</v>
       </c>
       <c r="E149">
-        <v>4.704392340543804</v>
+        <v>8.183133688840858</v>
       </c>
       <c r="F149">
-        <v>23.92449114422417</v>
+        <v>4.059649863396032</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>55.26665315858333</v>
+        <v>2.75879613253587</v>
       </c>
       <c r="C150">
-        <v>4.917227041330872</v>
+        <v>24.18391060960594</v>
       </c>
       <c r="D150">
-        <v>3.228557041794939</v>
+        <v>5.728654353013503</v>
       </c>
       <c r="E150">
-        <v>4.647458467052009</v>
+        <v>8.170188073625493</v>
       </c>
       <c r="F150">
-        <v>23.86949931316729</v>
+        <v>4.046128285373701</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>55.19534178768663</v>
+        <v>2.753305719341487</v>
       </c>
       <c r="C151">
-        <v>4.884493158270733</v>
+        <v>24.17641437289229</v>
       </c>
       <c r="D151">
-        <v>3.182164961725643</v>
+        <v>5.712195754347994</v>
       </c>
       <c r="E151">
-        <v>4.59069501304716</v>
+        <v>8.157250331298869</v>
       </c>
       <c r="F151">
-        <v>23.8145302414693</v>
+        <v>4.032592817425892</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>55.12404261705386</v>
+        <v>2.747820765348987</v>
       </c>
       <c r="C152">
-        <v>4.851902185041297</v>
+        <v>24.16891848229134</v>
       </c>
       <c r="D152">
-        <v>3.136134414214911</v>
+        <v>5.695764003610866</v>
       </c>
       <c r="E152">
-        <v>4.534104367278855</v>
+        <v>8.14432050159839</v>
       </c>
       <c r="F152">
-        <v>23.75958535326627</v>
+        <v>4.01904498206089</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>55.05275566962273</v>
+        <v>2.742341312500758</v>
       </c>
       <c r="C153">
-        <v>4.819454113720015</v>
+        <v>24.16142297063922</v>
       </c>
       <c r="D153">
-        <v>3.090467609539944</v>
+        <v>5.679359127016514</v>
       </c>
       <c r="E153">
-        <v>4.477688968033786</v>
+        <v>8.131398619164226</v>
       </c>
       <c r="F153">
-        <v>23.70466597825203</v>
+        <v>4.005486227504084</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>54.98148096745079</v>
+        <v>2.736867399049182</v>
       </c>
       <c r="C154">
-        <v>4.787148932867155</v>
+        <v>24.15392786688681</v>
       </c>
       <c r="D154">
-        <v>3.045166698976736</v>
+        <v>5.662981150216611</v>
       </c>
       <c r="E154">
-        <v>4.421451304171314</v>
+        <v>8.118484716070315</v>
       </c>
       <c r="F154">
-        <v>23.64977338808778</v>
+        <v>3.991917942033119</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>54.91021853244558</v>
+        <v>2.73139905880334</v>
       </c>
       <c r="C155">
-        <v>4.75498662731841</v>
+        <v>24.14643319712044</v>
       </c>
       <c r="D155">
-        <v>3.000233774516635</v>
+        <v>5.646630098098876</v>
       </c>
       <c r="E155">
-        <v>4.365393916458806</v>
+        <v>8.105578822636733</v>
       </c>
       <c r="F155">
-        <v>23.59490878469432</v>
+        <v>3.97834144486086</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>54.83896838568748</v>
+        <v>2.725936323659372</v>
       </c>
       <c r="C156">
-        <v>4.722967178351468</v>
+        <v>24.13893898458795</v>
       </c>
       <c r="D156">
-        <v>2.955670868653122</v>
+        <v>5.630305995715405</v>
       </c>
       <c r="E156">
-        <v>4.309519398645342</v>
+        <v>8.092680964959012</v>
       </c>
       <c r="F156">
-        <v>23.54007329851143</v>
+        <v>3.964758003296132</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>54.76773054809263</v>
+        <v>2.720479221187717</v>
       </c>
       <c r="C157">
-        <v>4.69109056360314</v>
+        <v>24.13144525081377</v>
       </c>
       <c r="D157">
-        <v>2.91147995518038</v>
+        <v>5.614008867015308</v>
       </c>
       <c r="E157">
-        <v>4.253830398776534</v>
+        <v>8.079791168818506</v>
       </c>
       <c r="F157">
-        <v>23.48526801288687</v>
+        <v>3.951168823634744</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>54.69650504019016</v>
+        <v>2.715027777657461</v>
       </c>
       <c r="C158">
-        <v>4.659356757147783</v>
+        <v>24.12395201386404</v>
       </c>
       <c r="D158">
-        <v>2.867662946969828</v>
+        <v>5.59773873610157</v>
       </c>
       <c r="E158">
-        <v>4.19832962033801</v>
+        <v>8.06690945686662</v>
       </c>
       <c r="F158">
-        <v>23.43049394389969</v>
+        <v>3.937575062838528</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>54.62529188201369</v>
+        <v>2.709582016119427</v>
       </c>
       <c r="C159">
-        <v>4.627765729433582</v>
+        <v>24.11645929172959</v>
       </c>
       <c r="D159">
-        <v>2.824221699272173</v>
+        <v>5.581495626687569</v>
       </c>
       <c r="E159">
-        <v>4.143019823553224</v>
+        <v>8.05403585085066</v>
       </c>
       <c r="F159">
-        <v>23.37575206405017</v>
+        <v>3.92397782717923</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>54.55409109354684</v>
+        <v>2.704141958239794</v>
       </c>
       <c r="C160">
-        <v>4.596317447357197</v>
+        <v>24.1089671000443</v>
       </c>
       <c r="D160">
-        <v>2.781158006306361</v>
+        <v>5.565279561808671</v>
       </c>
       <c r="E160">
-        <v>4.087903826597106</v>
+        <v>8.041170370948509</v>
       </c>
       <c r="F160">
-        <v>23.32104329264448</v>
+        <v>3.910378175136308</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>54.48290269433554</v>
+        <v>2.698707623516571</v>
       </c>
       <c r="C161">
-        <v>4.565011874174979</v>
+        <v>24.10147545213448</v>
       </c>
       <c r="D161">
-        <v>2.738473599800601</v>
+        <v>5.549090564626631</v>
       </c>
       <c r="E161">
-        <v>4.032984506868081</v>
+        <v>8.028313036344256</v>
       </c>
       <c r="F161">
-        <v>23.26636850383541</v>
+        <v>3.896777122454822</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>54.4117267038438</v>
+        <v>2.693279030231622</v>
       </c>
       <c r="C162">
-        <v>4.533848969583599</v>
+        <v>24.09398436187762</v>
       </c>
       <c r="D162">
-        <v>2.696170155432101</v>
+        <v>5.532928657772565</v>
       </c>
       <c r="E162">
-        <v>3.978264802288685</v>
+        <v>8.015463865072993</v>
       </c>
       <c r="F162">
-        <v>23.21172853055173</v>
+        <v>3.883175640625061</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>54.34056314130185</v>
+        <v>2.687856194974164</v>
       </c>
       <c r="C163">
-        <v>4.502828689632216</v>
+        <v>24.08649383994015</v>
       </c>
       <c r="D163">
-        <v>2.654249281744605</v>
+        <v>5.516793863708758</v>
       </c>
       <c r="E163">
-        <v>3.923747712523336</v>
+        <v>8.002622874541322</v>
       </c>
       <c r="F163">
-        <v>23.15712416150395</v>
+        <v>3.869574663807531</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>54.26941202583216</v>
+        <v>2.682439133414068</v>
       </c>
       <c r="C164">
-        <v>4.4719509867804</v>
+        <v>24.07900389720679</v>
       </c>
       <c r="D164">
-        <v>2.612712526304926</v>
+        <v>5.500686204668617</v>
       </c>
       <c r="E164">
-        <v>3.869436300365488</v>
+        <v>7.989790081352223</v>
       </c>
       <c r="F164">
-        <v>23.10255615259184</v>
+        <v>3.855975085627793</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>54.1982733764184</v>
+        <v>2.677027859917346</v>
       </c>
       <c r="C165">
-        <v>4.441215809839525</v>
+        <v>24.07151454339622</v>
       </c>
       <c r="D165">
-        <v>2.571561376787572</v>
+        <v>5.484605702645867</v>
       </c>
       <c r="E165">
-        <v>3.815333692923062</v>
+        <v>7.976965501236696</v>
       </c>
       <c r="F165">
-        <v>23.04802521791199</v>
+        <v>3.84237776679071</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>54.12714721195331</v>
+        <v>2.671622387917429</v>
       </c>
       <c r="C166">
-        <v>4.410623103997322</v>
+        <v>24.06402578673426</v>
       </c>
       <c r="D166">
-        <v>2.530797248988958</v>
+        <v>5.468552379459375</v>
       </c>
       <c r="E166">
-        <v>3.761443083032221</v>
+        <v>7.964149149698347</v>
       </c>
       <c r="F166">
-        <v>22.99353204238085</v>
+        <v>3.828783531258274</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>54.05603355127328</v>
+        <v>2.666222730020945</v>
       </c>
       <c r="C167">
-        <v>4.380172810784102</v>
+        <v>24.05653763531544</v>
       </c>
       <c r="D167">
-        <v>2.490421499795694</v>
+        <v>5.452526256699239</v>
       </c>
       <c r="E167">
-        <v>3.707767730476838</v>
+        <v>7.951341041230434</v>
       </c>
       <c r="F167">
-        <v>22.93907727727871</v>
+        <v>3.815193172888777</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>53.98493241308559</v>
+        <v>2.660828897864746</v>
       </c>
       <c r="C168">
-        <v>4.349864868078622</v>
+        <v>24.04905009621788</v>
       </c>
       <c r="D168">
-        <v>2.450435417921755</v>
+        <v>5.436527355806265</v>
       </c>
       <c r="E168">
-        <v>3.654310963380374</v>
+        <v>7.938541190227075</v>
       </c>
       <c r="F168">
-        <v>22.88466154199057</v>
+        <v>3.801607453720011</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>53.91384381612269</v>
+        <v>2.655440902541959</v>
       </c>
       <c r="C169">
-        <v>4.319699210080335</v>
+        <v>24.04156317598465</v>
       </c>
       <c r="D169">
-        <v>2.410840222352198</v>
+        <v>5.420555698047417</v>
       </c>
       <c r="E169">
-        <v>3.601076179385947</v>
+        <v>7.925749610400229</v>
       </c>
       <c r="F169">
-        <v>22.830285430602</v>
+        <v>3.78802710667539</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>53.84276777898634</v>
+        <v>2.650058754331382</v>
       </c>
       <c r="C170">
-        <v>4.289675767312118</v>
+        <v>24.03407688068878</v>
       </c>
       <c r="D170">
-        <v>2.371637066479984</v>
+        <v>5.404611304449512</v>
       </c>
       <c r="E170">
-        <v>3.548066847076497</v>
+        <v>7.912966315217408</v>
       </c>
       <c r="F170">
-        <v>22.77594950662541</v>
+        <v>3.774452837644201</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>53.77170432030726</v>
+        <v>2.644682463060984</v>
       </c>
       <c r="C171">
-        <v>4.259794466590439</v>
+        <v>24.02659121571585</v>
       </c>
       <c r="D171">
-        <v>2.332827033138409</v>
+        <v>5.388694195953692</v>
       </c>
       <c r="E171">
-        <v>3.495286507248209</v>
+        <v>7.900191317777161</v>
       </c>
       <c r="F171">
-        <v>22.72165431130666</v>
+        <v>3.760885325043886</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>53.70065345865701</v>
+        <v>2.63931203793932</v>
       </c>
       <c r="C172">
-        <v>4.230055231027312</v>
+        <v>24.01910618628873</v>
       </c>
       <c r="D172">
-        <v>2.294411134453979</v>
+        <v>5.37280439326482</v>
       </c>
       <c r="E172">
-        <v>3.442738774109693</v>
+        <v>7.887424630930039</v>
       </c>
       <c r="F172">
-        <v>22.66740035991009</v>
+        <v>3.747325223561099</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>53.62961521259468</v>
+        <v>2.633947487806594</v>
       </c>
       <c r="C173">
-        <v>4.200457980002675</v>
+        <v>24.01162179703981</v>
       </c>
       <c r="D173">
-        <v>2.256390311798626</v>
+        <v>5.35694191694279</v>
       </c>
       <c r="E173">
-        <v>3.39042733663202</v>
+        <v>7.874666267267821</v>
       </c>
       <c r="F173">
-        <v>22.61318814563781</v>
+        <v>3.733773162579142</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>53.55858960067646</v>
+        <v>2.628588820984681</v>
       </c>
       <c r="C174">
-        <v>4.171002629160927</v>
+        <v>24.00413805221921</v>
       </c>
       <c r="D174">
-        <v>2.218765432852055</v>
+        <v>5.341106787392773</v>
       </c>
       <c r="E174">
-        <v>3.338355959852585</v>
+        <v>7.861916239179883</v>
       </c>
       <c r="F174">
-        <v>22.55901814081285</v>
+        <v>3.720229750251633</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>53.48757664145104</v>
+        <v>2.623236045531459</v>
       </c>
       <c r="C175">
-        <v>4.141689090389474</v>
+        <v>23.99665495595709</v>
       </c>
       <c r="D175">
-        <v>2.181537292084522</v>
+        <v>5.325299024838247</v>
       </c>
       <c r="E175">
-        <v>3.286528486159225</v>
+        <v>7.849174558902395</v>
       </c>
       <c r="F175">
-        <v>22.50489079595638</v>
+        <v>3.706695571605244</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>53.41657635348113</v>
+        <v>2.617889169053908</v>
       </c>
       <c r="C176">
-        <v>4.112517271811059</v>
+        <v>23.98917251173898</v>
       </c>
       <c r="D176">
-        <v>2.14470660924785</v>
+        <v>5.309518649357133</v>
       </c>
       <c r="E176">
-        <v>3.234948835905053</v>
+        <v>7.836441238423054</v>
       </c>
       <c r="F176">
-        <v>22.45080654453366</v>
+        <v>3.693171192358795</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>53.34558875532935</v>
+        <v>2.612548198939526</v>
       </c>
       <c r="C177">
-        <v>4.083487077767572</v>
+        <v>23.98169072304932</v>
       </c>
       <c r="D177">
-        <v>2.108274027048921</v>
+        <v>5.293765680868709</v>
       </c>
       <c r="E177">
-        <v>3.183621009724355</v>
+        <v>7.82371628968323</v>
       </c>
       <c r="F177">
-        <v>22.39676579935102</v>
+        <v>3.679657157722764</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>53.2746138655907</v>
+        <v>2.607213142240178</v>
       </c>
       <c r="C178">
-        <v>4.054598408804648</v>
+        <v>23.97420959301136</v>
       </c>
       <c r="D178">
-        <v>2.072240111916449</v>
+        <v>5.278040139139176</v>
       </c>
       <c r="E178">
-        <v>3.132549088930097</v>
+        <v>7.810999724380992</v>
       </c>
       <c r="F178">
-        <v>22.34276895811439</v>
+        <v>3.666153994419934</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>53.2036517028637</v>
+        <v>2.601884005766535</v>
       </c>
       <c r="C179">
-        <v>4.02585116166241</v>
+        <v>23.96672912445839</v>
       </c>
       <c r="D179">
-        <v>2.036605351699181</v>
+        <v>5.26234204378293</v>
       </c>
       <c r="E179">
-        <v>3.081737235784217</v>
+        <v>7.798291554176521</v>
       </c>
       <c r="F179">
-        <v>22.28881640120703</v>
+        <v>3.652662211433793</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>53.13270228578354</v>
+        <v>2.596560796104669</v>
       </c>
       <c r="C180">
-        <v>3.997245229259292</v>
+        <v>23.9592493201011</v>
       </c>
       <c r="D180">
-        <v>2.001370154709868</v>
+        <v>5.246671414259277</v>
       </c>
       <c r="E180">
-        <v>3.031189696811076</v>
+        <v>7.78559179057012</v>
       </c>
       <c r="F180">
-        <v>22.2349084931428</v>
+        <v>3.639182300172865</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>53.06176563300906</v>
+        <v>2.591243519611319</v>
       </c>
       <c r="C181">
-        <v>3.968780500681509</v>
+        <v>23.95177018239389</v>
       </c>
       <c r="D181">
-        <v>1.966534848867648</v>
+        <v>5.231028269886675</v>
       </c>
       <c r="E181">
-        <v>2.980910801783608</v>
+        <v>7.77290044499459</v>
       </c>
       <c r="F181">
-        <v>22.18104558481686</v>
+        <v>3.625714736398093</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>52.99084176322477</v>
+        <v>2.585932182474205</v>
       </c>
       <c r="C182">
-        <v>3.94045686116564</v>
+        <v>23.94429171365653</v>
       </c>
       <c r="D182">
-        <v>1.932099680941566</v>
+        <v>5.215412629822995</v>
       </c>
       <c r="E182">
-        <v>2.930904964386783</v>
+        <v>7.760217528791424</v>
       </c>
       <c r="F182">
-        <v>22.12722801175065</v>
+        <v>3.612259979493658</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>52.91993069515672</v>
+        <v>2.580626790686353</v>
       </c>
       <c r="C183">
-        <v>3.912274192087893</v>
+        <v>23.93681391604533</v>
       </c>
       <c r="D183">
-        <v>1.898064815205646</v>
+        <v>5.199824513079938</v>
       </c>
       <c r="E183">
-        <v>2.881176685870691</v>
+        <v>7.747543053234718</v>
       </c>
       <c r="F183">
-        <v>22.07345609758895</v>
+        <v>3.598818474763955</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>52.84903244755942</v>
+        <v>2.575327350106709</v>
       </c>
       <c r="C184">
-        <v>3.884232370966265</v>
+        <v>23.92933679154354</v>
       </c>
       <c r="D184">
-        <v>1.864430332013071</v>
+        <v>5.184263938523761</v>
       </c>
       <c r="E184">
-        <v>2.831730552238265</v>
+        <v>7.73487702953869</v>
       </c>
       <c r="F184">
-        <v>22.01973015240871</v>
+        <v>3.585390652440064</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>52.77814703923238</v>
+        <v>2.570033866425165</v>
       </c>
       <c r="C185">
-        <v>3.856331271420569</v>
+        <v>23.92186034206057</v>
       </c>
       <c r="D185">
-        <v>1.831196228943637</v>
+        <v>5.168730924859133</v>
       </c>
       <c r="E185">
-        <v>2.782571236613885</v>
+        <v>7.722219468856552</v>
       </c>
       <c r="F185">
-        <v>21.96605047479164</v>
+        <v>3.571976929871512</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>52.70727448901191</v>
+        <v>2.564746345228916</v>
       </c>
       <c r="C186">
-        <v>3.828570763176975</v>
+        <v>23.91438456932758</v>
       </c>
       <c r="D186">
-        <v>1.798362417148197</v>
+        <v>5.153225490650328</v>
       </c>
       <c r="E186">
-        <v>2.733703501806224</v>
+        <v>7.709570382309552</v>
       </c>
       <c r="F186">
-        <v>21.91241735209033</v>
+        <v>3.55857771030553</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>52.63641481578131</v>
+        <v>2.559464791954627</v>
       </c>
       <c r="C187">
-        <v>3.800950712081584</v>
+        <v>23.90690947499218</v>
       </c>
       <c r="D187">
-        <v>1.765928722091552</v>
+        <v>5.137747654306637</v>
       </c>
       <c r="E187">
-        <v>2.685132195235274</v>
+        <v>7.696929780952493</v>
       </c>
       <c r="F187">
-        <v>21.858831060264</v>
+        <v>3.545193385224791</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>52.56556803846713</v>
+        <v>2.554189211957395</v>
       </c>
       <c r="C188">
-        <v>3.773470980038853</v>
+        <v>23.89943506061796</v>
       </c>
       <c r="D188">
-        <v>1.733894884213435</v>
+        <v>5.122297434086876</v>
       </c>
       <c r="E188">
-        <v>2.636862255285524</v>
+        <v>7.684297675828701</v>
       </c>
       <c r="F188">
-        <v>21.80529186591</v>
+        <v>3.531824334834156</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>52.49473417604367</v>
+        <v>2.548919610443281</v>
       </c>
       <c r="C189">
-        <v>3.746131425030504</v>
+        <v>23.89196132761648</v>
       </c>
       <c r="D189">
-        <v>1.702260554693206</v>
+        <v>5.1068748481001</v>
       </c>
       <c r="E189">
-        <v>2.588898710017684</v>
+        <v>7.671674077923122</v>
       </c>
       <c r="F189">
-        <v>21.75180002483889</v>
+        <v>3.518470926934031</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>52.42391324753516</v>
+        <v>2.543655992570682</v>
       </c>
       <c r="C190">
-        <v>3.718931901135167</v>
+        <v>23.884488277368</v>
       </c>
       <c r="D190">
-        <v>1.671025297917851</v>
+        <v>5.09147991430441</v>
       </c>
       <c r="E190">
-        <v>2.541246670483886</v>
+        <v>7.659058998209015</v>
       </c>
       <c r="F190">
-        <v>21.69835578448419</v>
+        <v>3.505133517105888</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>52.35310527201298</v>
+        <v>2.538398363420656</v>
       </c>
       <c r="C191">
-        <v>3.691872258457951</v>
+        <v>23.87701591114437</v>
       </c>
       <c r="D191">
-        <v>1.64018859068598</v>
+        <v>5.076112650507027</v>
       </c>
       <c r="E191">
-        <v>2.493911342497067</v>
+        <v>7.646452447624167</v>
       </c>
       <c r="F191">
-        <v>21.64495938297624</v>
+        <v>3.491812453847888</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>52.28231026860376</v>
+        <v>2.533146727931987</v>
       </c>
       <c r="C192">
-        <v>3.664952343154249</v>
+        <v>23.86954423014082</v>
       </c>
       <c r="D192">
-        <v>1.60974981894651</v>
+        <v>5.06077307436315</v>
       </c>
       <c r="E192">
-        <v>2.446898018353671</v>
+        <v>7.633854437086398</v>
       </c>
       <c r="F192">
-        <v>21.59161104996426</v>
+        <v>3.478508075163306</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>52.21152825648264</v>
+        <v>2.527901091010941</v>
       </c>
       <c r="C193">
-        <v>3.638171997452865</v>
+        <v>23.86207323549975</v>
       </c>
       <c r="D193">
-        <v>1.5797082816536</v>
+        <v>5.045461203376509</v>
       </c>
       <c r="E193">
-        <v>2.400212072777076</v>
+        <v>7.621264977494934</v>
       </c>
       <c r="F193">
-        <v>21.53831100748108</v>
+        <v>3.465220703905955</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>52.14075925488184</v>
+        <v>2.52266145754497</v>
       </c>
       <c r="C194">
-        <v>3.611531059586855</v>
+        <v>23.85460292828327</v>
       </c>
       <c r="D194">
-        <v>1.550063187214933</v>
+        <v>5.030177054899288</v>
       </c>
       <c r="E194">
-        <v>2.353858974946354</v>
+        <v>7.608684079731258</v>
       </c>
       <c r="F194">
-        <v>21.48505946932869</v>
+        <v>3.451950660312831</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>52.07000328308635</v>
+        <v>2.517427832300357</v>
       </c>
       <c r="C195">
-        <v>3.585029363815575</v>
+        <v>23.84713330951163</v>
       </c>
       <c r="D195">
-        <v>1.520813653101695</v>
+        <v>5.014920646127924</v>
       </c>
       <c r="E195">
-        <v>2.307844275962402</v>
+        <v>7.596111754663747</v>
       </c>
       <c r="F195">
-        <v>21.43185664265742</v>
+        <v>3.438698254325407</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>51.99926036043772</v>
+        <v>2.512200219943119</v>
       </c>
       <c r="C196">
-        <v>3.558666740454</v>
+        <v>23.83966438014563</v>
       </c>
       <c r="D196">
-        <v>1.491958710368419</v>
+        <v>4.999691994108153</v>
       </c>
       <c r="E196">
-        <v>2.262173608386672</v>
+        <v>7.583548013141882</v>
       </c>
       <c r="F196">
-        <v>21.37870272716745</v>
+        <v>3.425463784691651</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>51.92853050633389</v>
+        <v>2.506978625196601</v>
       </c>
       <c r="C197">
-        <v>3.532443015803781</v>
+        <v>23.832196141093</v>
       </c>
       <c r="D197">
-        <v>1.463497296480113</v>
+        <v>4.984491115729663</v>
       </c>
       <c r="E197">
-        <v>2.216852695932247</v>
+        <v>7.570992866017806</v>
       </c>
       <c r="F197">
-        <v>21.32559791624158</v>
+        <v>3.412247542706582</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>51.85781374022981</v>
+        <v>2.501763052690229</v>
       </c>
       <c r="C198">
-        <v>3.506358012173884</v>
+        <v>23.82472859323024</v>
       </c>
       <c r="D198">
-        <v>1.435428260057486</v>
+        <v>4.969318027727024</v>
       </c>
       <c r="E198">
-        <v>2.171887335737421</v>
+        <v>7.558446324139048</v>
       </c>
       <c r="F198">
-        <v>21.27254239693524</v>
+        <v>3.399049813748982</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>51.78711008164116</v>
+        <v>2.496553506921448</v>
       </c>
       <c r="C199">
-        <v>3.480411547915883</v>
+        <v>23.81726173737275</v>
       </c>
       <c r="D199">
-        <v>1.40775036228326</v>
+        <v>4.954172746680069</v>
       </c>
       <c r="E199">
-        <v>2.127283405860029</v>
+        <v>7.545908398309188</v>
       </c>
       <c r="F199">
-        <v>21.21953635004671</v>
+        <v>3.385870874433401</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>51.71641955014321</v>
+        <v>2.491349992450753</v>
       </c>
       <c r="C200">
-        <v>3.454603437356647</v>
+        <v>23.80979557431315</v>
       </c>
       <c r="D200">
-        <v>1.380462271113229</v>
+        <v>4.939055289011412</v>
       </c>
       <c r="E200">
-        <v>2.083046868027949</v>
+        <v>7.533379099370398</v>
       </c>
       <c r="F200">
-        <v>21.16657995102193</v>
+        <v>3.372710992320642</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>51.64574216536469</v>
+        <v>2.486152513767256</v>
       </c>
       <c r="C201">
-        <v>3.428933490816515</v>
+        <v>23.80233010480432</v>
       </c>
       <c r="D201">
-        <v>1.35356256759409</v>
+        <v>4.923965670987229</v>
       </c>
       <c r="E201">
-        <v>2.039183743258151</v>
+        <v>7.520858438156275</v>
       </c>
       <c r="F201">
-        <v>21.11367336936303</v>
+        <v>3.359570430418505</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>51.57507794700407</v>
+        <v>2.480961075271281</v>
       </c>
       <c r="C202">
-        <v>3.403401514650446</v>
+        <v>23.7948653295563</v>
       </c>
       <c r="D202">
-        <v>1.327049744340165</v>
+        <v>4.908903908715886</v>
       </c>
       <c r="E202">
-        <v>1.99570013513927</v>
+        <v>7.508346425475462</v>
       </c>
       <c r="F202">
-        <v>21.06081676976063</v>
+        <v>3.346449444357559</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>51.50442691482021</v>
+        <v>2.475775681376017</v>
       </c>
       <c r="C203">
-        <v>3.378007311183705</v>
+        <v>23.78740124926039</v>
       </c>
       <c r="D203">
-        <v>1.300922202773429</v>
+        <v>4.893870018147457</v>
       </c>
       <c r="E203">
-        <v>1.952602215062442</v>
+        <v>7.495843072130663</v>
       </c>
       <c r="F203">
-        <v>21.0080103114467</v>
+        <v>3.333348282006835</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>51.43378908862848</v>
+        <v>2.470596336445268</v>
       </c>
       <c r="C204">
-        <v>3.352750678726695</v>
+        <v>23.77993786457013</v>
       </c>
       <c r="D204">
-        <v>1.275178260595302</v>
+        <v>4.87886401507307</v>
       </c>
       <c r="E204">
-        <v>1.90989620067345</v>
+        <v>7.48334838895429</v>
       </c>
       <c r="F204">
-        <v>20.95525414899863</v>
+        <v>3.320267186258981</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>51.36316448830834</v>
+        <v>2.465423044801029</v>
       </c>
       <c r="C205">
-        <v>3.327631411621523</v>
+        <v>23.77247517611515</v>
       </c>
       <c r="D205">
-        <v>1.249816145549857</v>
+        <v>4.863885915123804</v>
       </c>
       <c r="E205">
-        <v>1.867588387127268</v>
+        <v>7.47086238676564</v>
       </c>
       <c r="F205">
-        <v>20.90254843289288</v>
+        <v>3.3072063939805</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>51.29255313380802</v>
+        <v>2.460255810738947</v>
       </c>
       <c r="C206">
-        <v>3.302649300182152</v>
+        <v>23.76501318450186</v>
       </c>
       <c r="D206">
-        <v>1.224833998696089</v>
+        <v>4.848935733770663</v>
       </c>
       <c r="E206">
-        <v>1.825685116534605</v>
+        <v>7.458385076353439</v>
       </c>
       <c r="F206">
-        <v>20.84989330930242</v>
+        <v>3.294166135692353</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>51.22195504513704</v>
+        <v>2.455094638529819</v>
       </c>
       <c r="C207">
-        <v>3.277804130705135</v>
+        <v>23.75755189030874</v>
       </c>
       <c r="D207">
-        <v>1.200229879672507</v>
+        <v>4.834013486323101</v>
       </c>
       <c r="E207">
-        <v>1.78419276537248</v>
+        <v>7.44591646854397</v>
       </c>
       <c r="F207">
-        <v>20.79728891840458</v>
+        <v>3.281146636074856</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>51.15137024236221</v>
+        <v>2.449939532409266</v>
       </c>
       <c r="C208">
-        <v>3.25309568552121</v>
+        <v>23.75009129409803</v>
       </c>
       <c r="D208">
-        <v>1.17600175914149</v>
+        <v>4.819119187928478</v>
       </c>
       <c r="E208">
-        <v>1.743117772390889</v>
+        <v>7.433456574153624</v>
       </c>
       <c r="F208">
-        <v>20.74473539885799</v>
+        <v>3.268148115494983</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>51.08079874562426</v>
+        <v>2.444790496582183</v>
       </c>
       <c r="C209">
-        <v>3.228523742940915</v>
+        <v>23.74263139640869</v>
       </c>
       <c r="D209">
-        <v>1.152147526277745</v>
+        <v>4.804252853571676</v>
       </c>
       <c r="E209">
-        <v>1.70246659844526</v>
+        <v>7.421005403990447</v>
       </c>
       <c r="F209">
-        <v>20.69223288514256</v>
+        <v>3.255170788842056</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>51.0102405751267</v>
+        <v>2.439647535240885</v>
       </c>
       <c r="C210">
-        <v>3.204088077260853</v>
+        <v>23.73517219776122</v>
       </c>
       <c r="D210">
-        <v>1.128664990150645</v>
+        <v>4.789414498073231</v>
       </c>
       <c r="E210">
-        <v>1.662245725834975</v>
+        <v>7.408562968870176</v>
       </c>
       <c r="F210">
-        <v>20.63978150715912</v>
+        <v>3.242214864549009</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>50.93969575113615</v>
+        <v>2.434510652547121</v>
       </c>
       <c r="C211">
-        <v>3.179788458820052</v>
+        <v>23.7277136986613</v>
       </c>
       <c r="D211">
-        <v>1.105551875079086</v>
+        <v>4.774604136090165</v>
       </c>
       <c r="E211">
-        <v>1.622461675939407</v>
+        <v>7.396129279612491</v>
       </c>
       <c r="F211">
-        <v>20.58738139060061</v>
+        <v>3.229280548051998</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>50.86916429398705</v>
+        <v>2.429379852621533</v>
       </c>
       <c r="C212">
-        <v>3.155624653951607</v>
+        <v>23.72025589958872</v>
       </c>
       <c r="D212">
-        <v>1.082805829088625</v>
+        <v>4.759821782114345</v>
       </c>
       <c r="E212">
-        <v>1.583120959101902</v>
+        <v>7.383704347037615</v>
       </c>
       <c r="F212">
-        <v>20.53503266006701</v>
+        <v>3.216368039731189</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>50.79864622408138</v>
+        <v>2.424255139584588</v>
       </c>
       <c r="C213">
-        <v>3.131596424984317</v>
+        <v>23.71279880101926</v>
       </c>
       <c r="D213">
-        <v>1.060424421474476</v>
+        <v>4.745067450471622</v>
       </c>
       <c r="E213">
-        <v>1.544230095715616</v>
+        <v>7.371288181967794</v>
       </c>
       <c r="F213">
-        <v>20.48273543646074</v>
+        <v>3.203477534534899</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>50.72814156188764</v>
+        <v>2.419136517528741</v>
       </c>
       <c r="C214">
-        <v>3.107703530303653</v>
+        <v>23.70534240341441</v>
       </c>
       <c r="D214">
-        <v>1.038405142703995</v>
+        <v>4.730341155320236</v>
       </c>
       <c r="E214">
-        <v>1.505795611327367</v>
+        <v>7.35888079523086</v>
       </c>
       <c r="F214">
-        <v>20.43048983545489</v>
+        <v>3.190609223571906</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>50.6576503279413</v>
+        <v>2.414023990505546</v>
       </c>
       <c r="C215">
-        <v>3.083945724309773</v>
+        <v>23.69788670722094</v>
       </c>
       <c r="D215">
-        <v>1.016745413134701</v>
+        <v>4.715642910652606</v>
       </c>
       <c r="E215">
-        <v>1.467823978392917</v>
+        <v>7.34648219765821</v>
       </c>
       <c r="F215">
-        <v>20.37829597184274</v>
+        <v>3.177763294146582</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>50.58717254284704</v>
+        <v>2.408917562564559</v>
       </c>
       <c r="C216">
-        <v>3.060322757414473</v>
+        <v>23.69043171285374</v>
       </c>
       <c r="D216">
-        <v>0.9954425754914695</v>
+        <v>4.700972730292622</v>
       </c>
       <c r="E216">
-        <v>1.43032167093523</v>
+        <v>7.334092400080493</v>
       </c>
       <c r="F216">
-        <v>20.32615395750293</v>
+        <v>3.164939929109728</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>50.51670822727785</v>
+        <v>2.403817237728883</v>
       </c>
       <c r="C217">
-        <v>3.036834376106579</v>
+        <v>23.68297742074649</v>
       </c>
       <c r="D217">
-        <v>0.9744939021747016</v>
+        <v>4.686330627894658</v>
       </c>
       <c r="E217">
-        <v>1.393295116286758</v>
+        <v>7.3217114133381</v>
       </c>
       <c r="F217">
-        <v>20.27406390128819</v>
+        <v>3.152139306857138</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>50.44625740197465</v>
+        <v>2.39872301999566</v>
       </c>
       <c r="C218">
-        <v>3.01348032291661</v>
+        <v>23.67552383131591</v>
       </c>
       <c r="D218">
-        <v>0.9538965989696098</v>
+        <v>4.67171661694268</v>
       </c>
       <c r="E218">
-        <v>1.356750656904171</v>
+        <v>7.309339248274794</v>
       </c>
       <c r="F218">
-        <v>20.22202590858262</v>
+        <v>3.139361602832102</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>50.37582008774875</v>
+        <v>2.393634913344396</v>
       </c>
       <c r="C219">
-        <v>2.990260336409095</v>
+        <v>23.66807094496177</v>
       </c>
       <c r="D219">
-        <v>0.933647800164358</v>
+        <v>4.657130710751623</v>
       </c>
       <c r="E219">
-        <v>1.320694603029966</v>
+        <v>7.296975915735183</v>
       </c>
       <c r="F219">
-        <v>20.1700400836202</v>
+        <v>3.12660698860405</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>50.30539630548128</v>
+        <v>2.388552921736441</v>
       </c>
       <c r="C220">
-        <v>2.967174151252099</v>
+        <v>23.66061876205528</v>
       </c>
       <c r="D220">
-        <v>0.9137445765160858</v>
+        <v>4.64257292246463</v>
       </c>
       <c r="E220">
-        <v>1.285133167992916</v>
+        <v>7.284621426568359</v>
       </c>
       <c r="F220">
-        <v>20.11810652792147</v>
+        <v>3.113875631455553</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>50.23498607612296</v>
+        <v>2.383477049111801</v>
       </c>
       <c r="C221">
-        <v>2.944221498188774</v>
+        <v>23.65316728299311</v>
       </c>
       <c r="D221">
-        <v>0.894183936263016</v>
+        <v>4.628043265052169</v>
       </c>
       <c r="E221">
-        <v>1.250072447145654</v>
+        <v>7.272275791631667</v>
       </c>
       <c r="F221">
-        <v>20.06622534035955</v>
+        <v>3.101167696026216</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>50.16458942069433</v>
+        <v>2.378407299390858</v>
       </c>
       <c r="C222">
-        <v>2.921402104025186</v>
+        <v>23.64571650815384</v>
       </c>
       <c r="D222">
-        <v>0.8749628235686066</v>
+        <v>4.613541751311817</v>
       </c>
       <c r="E222">
-        <v>1.215518455467697</v>
+        <v>7.25993902178509</v>
       </c>
       <c r="F222">
-        <v>20.01439661781245</v>
+        <v>3.088483343466597</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>50.09420636028823</v>
+        <v>2.373343676477355</v>
       </c>
       <c r="C223">
-        <v>2.898715691703649</v>
+        <v>23.63826643789934</v>
       </c>
       <c r="D223">
-        <v>0.8560781263992092</v>
+        <v>4.599068393868032</v>
       </c>
       <c r="E223">
-        <v>1.181477055463327</v>
+        <v>7.247611127889095</v>
       </c>
       <c r="F223">
-        <v>19.96262045542334</v>
+        <v>3.075822731396381</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>50.02383691606838</v>
+        <v>2.368286184255745</v>
       </c>
       <c r="C224">
-        <v>2.876161980281303</v>
+        <v>23.63081707257619</v>
       </c>
       <c r="D224">
-        <v>0.8375266743755916</v>
+        <v>4.58462320517055</v>
       </c>
       <c r="E224">
-        <v>1.147953957739723</v>
+        <v>7.235292120813745</v>
       </c>
       <c r="F224">
-        <v>19.91089694628407</v>
+        <v>3.063186014276948</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>49.95348110926872</v>
+        <v>2.363234826589883</v>
       </c>
       <c r="C225">
-        <v>2.853740684913682</v>
+        <v>23.62336841254391</v>
       </c>
       <c r="D225">
-        <v>0.8193052417263071</v>
+        <v>4.570206197493811</v>
       </c>
       <c r="E225">
-        <v>1.11495473275989</v>
+        <v>7.222982011432189</v>
       </c>
       <c r="F225">
-        <v>19.85922618091205</v>
+        <v>3.050573343930641</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>49.88313896119669</v>
+        <v>2.358189607329483</v>
       </c>
       <c r="C226">
-        <v>2.831451516931539</v>
+        <v>23.61592045814858</v>
       </c>
       <c r="D226">
-        <v>0.8014105533363178</v>
+        <v>4.555817382936249</v>
       </c>
       <c r="E226">
-        <v>1.082484737603731</v>
+        <v>7.210680810620916</v>
       </c>
       <c r="F226">
-        <v>19.8076082488959</v>
+        <v>3.037984869066295</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>49.81281049323164</v>
+        <v>2.353150530305967</v>
       </c>
       <c r="C227">
-        <v>2.809294183826486</v>
+        <v>23.60847320972484</v>
       </c>
       <c r="D227">
-        <v>0.7838392813880827</v>
+        <v>4.541456773419488</v>
       </c>
       <c r="E227">
-        <v>1.050549142550938</v>
+        <v>7.198388529262002</v>
       </c>
       <c r="F227">
-        <v>19.75604323791299</v>
+        <v>3.025420735022731</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>49.74249572682541</v>
+        <v>2.348117599328278</v>
       </c>
       <c r="C228">
-        <v>2.787268389230596</v>
+        <v>23.60102666760126</v>
       </c>
       <c r="D228">
-        <v>0.76658805163139</v>
+        <v>4.527124380687542</v>
       </c>
       <c r="E228">
-        <v>1.019152906989781</v>
+        <v>7.186105178242309</v>
       </c>
       <c r="F228">
-        <v>19.70453123373395</v>
+        <v>3.012881085040882</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>49.67219468350281</v>
+        <v>2.343090818193383</v>
       </c>
       <c r="C229">
-        <v>2.765373832996406</v>
+        <v>23.59358083210685</v>
       </c>
       <c r="D229">
-        <v>0.7496534462229779</v>
+        <v>4.512820216306532</v>
       </c>
       <c r="E229">
-        <v>0.9883007172754693</v>
+        <v>7.173830768453238</v>
       </c>
       <c r="F229">
-        <v>19.65307232029169</v>
+        <v>3.00036605951949</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>49.60190738486239</v>
+        <v>2.338070190679716</v>
       </c>
       <c r="C230">
-        <v>2.743610211189581</v>
+        <v>23.58613570356321</v>
       </c>
       <c r="D230">
-        <v>0.7330320028768132</v>
+        <v>4.49854429166303</v>
       </c>
       <c r="E230">
-        <v>0.9579970301160319</v>
+        <v>7.161565310790898</v>
       </c>
       <c r="F230">
-        <v>19.60166658064218</v>
+        <v>2.987875795811613</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>49.53163385257638</v>
+        <v>2.333055720545859</v>
       </c>
       <c r="C231">
-        <v>2.721977216064882</v>
+        <v>23.57869128228501</v>
       </c>
       <c r="D231">
-        <v>0.7167202206618116</v>
+        <v>4.484296617963813</v>
       </c>
       <c r="E231">
-        <v>0.9282460141664909</v>
+        <v>7.149308816156442</v>
       </c>
       <c r="F231">
-        <v>19.55031409623026</v>
+        <v>2.975410429052166</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>49.46137410839108</v>
+        <v>2.328047411534735</v>
       </c>
       <c r="C232">
-        <v>2.70047453614904</v>
+        <v>23.57124756858364</v>
       </c>
       <c r="D232">
-        <v>0.7007145613407898</v>
+        <v>4.470077206235049</v>
       </c>
       <c r="E232">
-        <v>0.899051521412813</v>
+        <v>7.137061295455837</v>
       </c>
       <c r="F232">
-        <v>19.49901494650749</v>
+        <v>2.962970091982572</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>49.39112817412742</v>
+        <v>2.323045267372955</v>
       </c>
       <c r="C233">
-        <v>2.679101856240323</v>
+        <v>23.56380456276768</v>
       </c>
       <c r="D233">
-        <v>0.6850114508808893</v>
+        <v>4.455886067321957</v>
       </c>
       <c r="E233">
-        <v>0.8704171026709099</v>
+        <v>7.124822759599054</v>
       </c>
       <c r="F233">
-        <v>19.44776921011517</v>
+        <v>2.950554914765706</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>49.3208960716812</v>
+        <v>2.318049291768989</v>
       </c>
       <c r="C234">
-        <v>2.657858857381285</v>
+        <v>23.55636226514158</v>
       </c>
       <c r="D234">
-        <v>0.6696072842604843</v>
+        <v>4.441723211887084</v>
       </c>
       <c r="E234">
-        <v>0.842345961543168</v>
+        <v>7.112593219501864</v>
       </c>
       <c r="F234">
-        <v>19.3965769644228</v>
+        <v>2.938165025051307</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>49.25067782302339</v>
+        <v>2.313059488413943</v>
       </c>
       <c r="C235">
-        <v>2.636745216944149</v>
+        <v>23.5489206760026</v>
       </c>
       <c r="D235">
-        <v>0.6544984258854442</v>
+        <v>4.427588650410226</v>
       </c>
       <c r="E235">
-        <v>0.8148409374753268</v>
+        <v>7.100372686084661</v>
       </c>
       <c r="F235">
-        <v>19.34543828545973</v>
+        <v>2.925800548564538</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>49.18047345020059</v>
+        <v>2.308075860983141</v>
       </c>
       <c r="C236">
-        <v>2.615760608637125</v>
+        <v>23.54147979564776</v>
       </c>
       <c r="D236">
-        <v>0.6396812130971139</v>
+        <v>4.413482393187573</v>
       </c>
       <c r="E236">
-        <v>0.787904495571436</v>
+        <v>7.088161170271861</v>
       </c>
       <c r="F236">
-        <v>19.29435324773983</v>
+        <v>2.913461608727097</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>49.11028297533544</v>
+        <v>2.303098413134573</v>
       </c>
       <c r="C237">
-        <v>2.594904702474386</v>
+        <v>23.53403962437143</v>
       </c>
       <c r="D237">
-        <v>0.6251519591646278</v>
+        <v>4.399404450331202</v>
       </c>
       <c r="E237">
-        <v>0.7615387052936884</v>
+        <v>7.075958682992737</v>
       </c>
       <c r="F237">
-        <v>19.24332192512946</v>
+        <v>2.901148326451966</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>49.04010642062684</v>
+        <v>2.298127148508858</v>
       </c>
       <c r="C238">
-        <v>2.574177164863602</v>
+        <v>23.52660016246494</v>
       </c>
       <c r="D238">
-        <v>0.6109069548295507</v>
+        <v>4.385354831767607</v>
       </c>
       <c r="E238">
-        <v>0.7357452196597988</v>
+        <v>7.063765235181853</v>
       </c>
       <c r="F238">
-        <v>19.19234439029037</v>
+        <v>2.888860820962681</v>
       </c>
     </row>
   </sheetData>
